--- a/DTAC_Privacy_Columns_Voltage_Format_Configuration_V1.0.xlsx
+++ b/DTAC_Privacy_Columns_Voltage_Format_Configuration_V1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="523"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="523" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version-Control" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'cdc -ph1a'!$A$1:$L$149</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns_With_Encryption_Format!$A$1:$X$352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns_With_Encryption_Format!$A$1:$X$380</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="569">
   <si>
     <t>IMEI</t>
   </si>
@@ -1388,9 +1388,6 @@
     <t>cs_pmpt_blnc</t>
   </si>
   <si>
-    <t>cs_pmpt_comm_nn_nn</t>
-  </si>
-  <si>
     <t>cs_pmpt_frfm_[0-9]_01</t>
   </si>
   <si>
@@ -1689,6 +1686,108 @@
   </si>
   <si>
     <t>First Draft Version for Phase 1,1.1,1.2 feeds mapped for Encryption format</t>
+  </si>
+  <si>
+    <t>DCVRY</t>
+  </si>
+  <si>
+    <t>EVOUCHER_DISCOUNT</t>
+  </si>
+  <si>
+    <t>VARCHAR2(120)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(170)</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>tbl_msisdn_sim</t>
+  </si>
+  <si>
+    <t>tbl_order_msisdn</t>
+  </si>
+  <si>
+    <t>VARCHAR2(25)</t>
+  </si>
+  <si>
+    <t>tbl_portin_order</t>
+  </si>
+  <si>
+    <t>REGS_NUMB</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+  </si>
+  <si>
+    <t>GRUP_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR2(255)</t>
+  </si>
+  <si>
+    <t>REGS_NAME_1</t>
+  </si>
+  <si>
+    <t>VARCHAR2(500)</t>
+  </si>
+  <si>
+    <t>REGS_NAME_2</t>
+  </si>
+  <si>
+    <t>DONR_ID_NUMB</t>
+  </si>
+  <si>
+    <t>DONR_NAME_1</t>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+  </si>
+  <si>
+    <t>DONR_NAME_2</t>
+  </si>
+  <si>
+    <t>FRST_SUBR_NUMB</t>
+  </si>
+  <si>
+    <t>tbl_portout_order</t>
+  </si>
+  <si>
+    <t>REGS_ID_NUMB</t>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(240)</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>intc_mms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_NUMBER           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_NUMBER           </t>
+  </si>
+  <si>
+    <t>intc_sms</t>
+  </si>
+  <si>
+    <t>intc_vdo</t>
+  </si>
+  <si>
+    <t>intc_voice</t>
+  </si>
+  <si>
+    <t>cs_pmpt_comm</t>
+  </si>
+  <si>
+    <t>cs_futx_itfc</t>
   </si>
 </sst>
 </file>
@@ -2045,15 +2144,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2061,15 +2151,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="10" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2082,6 +2163,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2403,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
@@ -2424,7 +2523,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
@@ -2434,43 +2533,43 @@
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="33" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A5" s="34">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35">
+        <v>43938</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" s="37">
-        <v>1</v>
-      </c>
-      <c r="B5" s="38">
-        <v>43938</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>535</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2488,18 +2587,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X353"/>
+  <dimension ref="A1:X380"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F331" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A353" sqref="A353"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="25" customWidth="1"/>
@@ -2546,55 +2645,55 @@
         <v>175</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>284</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>285</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L1" s="20" t="s">
         <v>291</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>286</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>287</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R1" s="20" t="s">
         <v>288</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T1" s="20" t="s">
         <v>289</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="V1" s="20" t="s">
         <v>290</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>140</v>
@@ -2624,7 +2723,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -2639,7 +2738,7 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -2681,7 +2780,7 @@
       <c r="V3" s="14"/>
       <c r="W3" s="22"/>
       <c r="X3" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -2712,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="22"/>
@@ -2723,7 +2822,7 @@
       <c r="V4" s="14"/>
       <c r="W4" s="22"/>
       <c r="X4" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -2752,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="22"/>
@@ -2765,7 +2864,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="22"/>
       <c r="X5" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -2792,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="22"/>
@@ -2807,7 +2906,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="22"/>
       <c r="X6" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -2830,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -2849,7 +2948,7 @@
       <c r="V7" s="14"/>
       <c r="W7" s="22"/>
       <c r="X7" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -2872,7 +2971,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -2891,7 +2990,7 @@
       <c r="V8" s="14"/>
       <c r="W8" s="22"/>
       <c r="X8" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -2918,7 +3017,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="22"/>
@@ -2933,7 +3032,7 @@
       <c r="V9" s="14"/>
       <c r="W9" s="22"/>
       <c r="X9" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -2962,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="22"/>
@@ -2975,7 +3074,7 @@
       <c r="V10" s="14"/>
       <c r="W10" s="22"/>
       <c r="X10" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -3012,12 +3111,12 @@
         <v>4</v>
       </c>
       <c r="U11" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V11" s="14"/>
       <c r="W11" s="22"/>
       <c r="X11" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -3059,7 +3158,7 @@
       <c r="V12" s="14"/>
       <c r="W12" s="22"/>
       <c r="X12" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -3082,7 +3181,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -3101,7 +3200,7 @@
       <c r="V13" s="14"/>
       <c r="W13" s="22"/>
       <c r="X13" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -3124,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -3143,7 +3242,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="22"/>
       <c r="X14" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -3172,7 +3271,7 @@
         <v>4</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -3185,7 +3284,7 @@
       <c r="V15" s="14"/>
       <c r="W15" s="22"/>
       <c r="X15" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3214,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -3227,7 +3326,7 @@
       <c r="V16" s="14"/>
       <c r="W16" s="22"/>
       <c r="X16" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -3256,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -3269,7 +3368,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="22"/>
       <c r="X17" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -3298,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -3311,7 +3410,7 @@
       <c r="V18" s="14"/>
       <c r="W18" s="22"/>
       <c r="X18" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -3340,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -3353,7 +3452,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="22"/>
       <c r="X19" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -3395,7 +3494,7 @@
       <c r="V20" s="14"/>
       <c r="W20" s="22"/>
       <c r="X20" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -3424,7 +3523,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -3437,7 +3536,7 @@
       <c r="V21" s="14"/>
       <c r="W21" s="22"/>
       <c r="X21" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -3460,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -3479,7 +3578,7 @@
       <c r="V22" s="14"/>
       <c r="W22" s="22"/>
       <c r="X22" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -3514,14 +3613,14 @@
         <v>4</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T23" s="14"/>
       <c r="U23" s="22"/>
       <c r="V23" s="14"/>
       <c r="W23" s="22"/>
       <c r="X23" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -3544,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -3563,7 +3662,7 @@
       <c r="V24" s="14"/>
       <c r="W24" s="22"/>
       <c r="X24" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="12" customHeight="1">
@@ -3594,7 +3693,7 @@
         <v>4</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
@@ -3605,7 +3704,7 @@
       <c r="V25" s="14"/>
       <c r="W25" s="22"/>
       <c r="X25" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -3636,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
@@ -3647,7 +3746,7 @@
       <c r="V26" s="14"/>
       <c r="W26" s="22"/>
       <c r="X26" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -3678,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
@@ -3689,7 +3788,7 @@
       <c r="V27" s="14"/>
       <c r="W27" s="22"/>
       <c r="X27" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -3712,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -3731,7 +3830,7 @@
       <c r="V28" s="14"/>
       <c r="W28" s="22"/>
       <c r="X28" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3773,7 +3872,7 @@
       <c r="V29" s="14"/>
       <c r="W29" s="22"/>
       <c r="X29" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="12" customHeight="1">
@@ -3815,7 +3914,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="22"/>
       <c r="X30" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3850,14 +3949,14 @@
         <v>4</v>
       </c>
       <c r="S31" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T31" s="14"/>
       <c r="U31" s="22"/>
       <c r="V31" s="14"/>
       <c r="W31" s="22"/>
       <c r="X31" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3890,7 +3989,7 @@
         <v>4</v>
       </c>
       <c r="Q32" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R32" s="14"/>
       <c r="S32" s="22"/>
@@ -3899,7 +3998,7 @@
       <c r="V32" s="14"/>
       <c r="W32" s="22"/>
       <c r="X32" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3926,7 +4025,7 @@
         <v>4</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
@@ -3941,7 +4040,7 @@
       <c r="V33" s="14"/>
       <c r="W33" s="22"/>
       <c r="X33" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3974,7 +4073,7 @@
         <v>4</v>
       </c>
       <c r="Q34" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R34" s="14"/>
       <c r="S34" s="22"/>
@@ -3983,7 +4082,7 @@
       <c r="V34" s="14"/>
       <c r="W34" s="22"/>
       <c r="X34" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -4014,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
@@ -4025,7 +4124,7 @@
       <c r="V35" s="14"/>
       <c r="W35" s="22"/>
       <c r="X35" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -4056,7 +4155,7 @@
         <v>4</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
@@ -4067,7 +4166,7 @@
       <c r="V36" s="14"/>
       <c r="W36" s="22"/>
       <c r="X36" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -4098,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
@@ -4109,7 +4208,7 @@
       <c r="V37" s="14"/>
       <c r="W37" s="22"/>
       <c r="X37" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -4140,7 +4239,7 @@
         <v>4</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
@@ -4151,7 +4250,7 @@
       <c r="V38" s="14"/>
       <c r="W38" s="22"/>
       <c r="X38" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -4174,7 +4273,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -4193,7 +4292,7 @@
       <c r="V39" s="14"/>
       <c r="W39" s="22"/>
       <c r="X39" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -4216,7 +4315,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -4235,7 +4334,7 @@
       <c r="V40" s="14"/>
       <c r="W40" s="22"/>
       <c r="X40" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -4270,14 +4369,14 @@
         <v>4</v>
       </c>
       <c r="S41" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T41" s="14"/>
       <c r="U41" s="22"/>
       <c r="V41" s="14"/>
       <c r="W41" s="22"/>
       <c r="X41" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4319,7 +4418,7 @@
       <c r="V42" s="14"/>
       <c r="W42" s="22"/>
       <c r="X42" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4361,7 +4460,7 @@
       <c r="V43" s="14"/>
       <c r="W43" s="22"/>
       <c r="X43" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4403,7 +4502,7 @@
       <c r="V44" s="14"/>
       <c r="W44" s="22"/>
       <c r="X44" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4434,7 +4533,7 @@
         <v>4</v>
       </c>
       <c r="O45" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
@@ -4445,7 +4544,7 @@
       <c r="V45" s="14"/>
       <c r="W45" s="22"/>
       <c r="X45" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4468,7 +4567,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -4487,7 +4586,7 @@
       <c r="V46" s="14"/>
       <c r="W46" s="22"/>
       <c r="X46" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4510,7 +4609,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -4529,7 +4628,7 @@
       <c r="V47" s="14"/>
       <c r="W47" s="22"/>
       <c r="X47" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4560,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
@@ -4571,7 +4670,7 @@
       <c r="V48" s="14"/>
       <c r="W48" s="22"/>
       <c r="X48" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4602,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
@@ -4613,7 +4712,7 @@
       <c r="V49" s="14"/>
       <c r="W49" s="22"/>
       <c r="X49" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4644,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -4655,7 +4754,7 @@
       <c r="V50" s="14"/>
       <c r="W50" s="22"/>
       <c r="X50" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4686,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="O51" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
@@ -4697,7 +4796,7 @@
       <c r="V51" s="14"/>
       <c r="W51" s="22"/>
       <c r="X51" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4728,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
@@ -4739,7 +4838,7 @@
       <c r="V52" s="14"/>
       <c r="W52" s="22"/>
       <c r="X52" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4770,7 +4869,7 @@
         <v>4</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
@@ -4781,7 +4880,7 @@
       <c r="V53" s="14"/>
       <c r="W53" s="22"/>
       <c r="X53" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4804,7 +4903,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -4823,7 +4922,7 @@
       <c r="V54" s="14"/>
       <c r="W54" s="22"/>
       <c r="X54" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4848,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
@@ -4865,7 +4964,7 @@
       <c r="V55" s="14"/>
       <c r="W55" s="22"/>
       <c r="X55" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -4892,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
@@ -4907,7 +5006,7 @@
       <c r="V56" s="14"/>
       <c r="W56" s="22"/>
       <c r="X56" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -4930,7 +5029,7 @@
         <v>4</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -4949,7 +5048,7 @@
       <c r="V57" s="14"/>
       <c r="W57" s="22"/>
       <c r="X57" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -4972,7 +5071,7 @@
         <v>4</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
@@ -4991,7 +5090,7 @@
       <c r="V58" s="14"/>
       <c r="W58" s="22"/>
       <c r="X58" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5033,7 +5132,7 @@
       <c r="V59" s="14"/>
       <c r="W59" s="22"/>
       <c r="X59" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5075,7 +5174,7 @@
       <c r="V60" s="14"/>
       <c r="W60" s="22"/>
       <c r="X60" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5117,7 +5216,7 @@
       <c r="V61" s="14"/>
       <c r="W61" s="22"/>
       <c r="X61" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5159,7 +5258,7 @@
       <c r="V62" s="14"/>
       <c r="W62" s="22"/>
       <c r="X62" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5198,10 +5297,10 @@
         <v>4</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X63" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5243,7 +5342,7 @@
       <c r="V64" s="14"/>
       <c r="W64" s="22"/>
       <c r="X64" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5285,7 +5384,7 @@
       <c r="V65" s="14"/>
       <c r="W65" s="22"/>
       <c r="X65" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5324,10 +5423,10 @@
         <v>4</v>
       </c>
       <c r="W66" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X66" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5369,7 +5468,7 @@
       <c r="V67" s="14"/>
       <c r="W67" s="22"/>
       <c r="X67" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5394,7 +5493,7 @@
         <v>4</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
@@ -5411,7 +5510,7 @@
       <c r="V68" s="14"/>
       <c r="W68" s="22"/>
       <c r="X68" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -5438,7 +5537,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
@@ -5453,7 +5552,7 @@
       <c r="V69" s="14"/>
       <c r="W69" s="22"/>
       <c r="X69" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -5495,7 +5594,7 @@
       <c r="V70" s="14"/>
       <c r="W70" s="22"/>
       <c r="X70" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -5520,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
@@ -5537,7 +5636,7 @@
       <c r="V71" s="14"/>
       <c r="W71" s="22"/>
       <c r="X71" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -5564,7 +5663,7 @@
         <v>4</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
@@ -5579,7 +5678,7 @@
       <c r="V72" s="14"/>
       <c r="W72" s="22"/>
       <c r="X72" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -5621,7 +5720,7 @@
       <c r="V73" s="14"/>
       <c r="W73" s="22"/>
       <c r="X73" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -5646,7 +5745,7 @@
         <v>4</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
@@ -5663,7 +5762,7 @@
       <c r="V74" s="14"/>
       <c r="W74" s="22"/>
       <c r="X74" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -5690,7 +5789,7 @@
         <v>4</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
@@ -5705,7 +5804,7 @@
       <c r="V75" s="14"/>
       <c r="W75" s="22"/>
       <c r="X75" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -5747,7 +5846,7 @@
       <c r="V76" s="14"/>
       <c r="W76" s="22"/>
       <c r="X76" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -5772,7 +5871,7 @@
         <v>4</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
@@ -5789,7 +5888,7 @@
       <c r="V77" s="14"/>
       <c r="W77" s="22"/>
       <c r="X77" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -5816,7 +5915,7 @@
         <v>4</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
@@ -5831,7 +5930,7 @@
       <c r="V78" s="14"/>
       <c r="W78" s="22"/>
       <c r="X78" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -5873,7 +5972,7 @@
       <c r="V79" s="14"/>
       <c r="W79" s="22"/>
       <c r="X79" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -5898,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
@@ -5915,7 +6014,7 @@
       <c r="V80" s="14"/>
       <c r="W80" s="22"/>
       <c r="X80" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -5942,7 +6041,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
@@ -5957,7 +6056,7 @@
       <c r="V81" s="14"/>
       <c r="W81" s="22"/>
       <c r="X81" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -5980,7 +6079,7 @@
         <v>4</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -5999,7 +6098,7 @@
       <c r="V82" s="14"/>
       <c r="W82" s="22"/>
       <c r="X82" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -6041,7 +6140,7 @@
       <c r="V83" s="14"/>
       <c r="W83" s="22"/>
       <c r="X83" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -6064,7 +6163,7 @@
         <v>4</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -6083,7 +6182,7 @@
       <c r="V84" s="14"/>
       <c r="W84" s="22"/>
       <c r="X84" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -6108,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
@@ -6125,7 +6224,7 @@
       <c r="V85" s="14"/>
       <c r="W85" s="22"/>
       <c r="X85" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -6150,7 +6249,7 @@
         <v>4</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
@@ -6167,7 +6266,7 @@
       <c r="V86" s="14"/>
       <c r="W86" s="22"/>
       <c r="X86" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -6190,7 +6289,7 @@
         <v>4</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -6209,7 +6308,7 @@
       <c r="V87" s="14"/>
       <c r="W87" s="22"/>
       <c r="X87" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -6232,7 +6331,7 @@
         <v>4</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -6251,7 +6350,7 @@
       <c r="V88" s="14"/>
       <c r="W88" s="22"/>
       <c r="X88" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -6289,7 +6388,7 @@
       <c r="V89" s="14"/>
       <c r="W89" s="22"/>
       <c r="X89" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -6331,7 +6430,7 @@
       <c r="V90" s="14"/>
       <c r="W90" s="22"/>
       <c r="X90" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -6356,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
@@ -6373,7 +6472,7 @@
       <c r="V91" s="14"/>
       <c r="W91" s="22"/>
       <c r="X91" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -6398,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
@@ -6415,7 +6514,7 @@
       <c r="V92" s="14"/>
       <c r="W92" s="22"/>
       <c r="X92" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -6438,7 +6537,7 @@
         <v>4</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
@@ -6457,7 +6556,7 @@
       <c r="V93" s="11"/>
       <c r="W93" s="22"/>
       <c r="X93" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -6480,7 +6579,7 @@
         <v>4</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -6499,7 +6598,7 @@
       <c r="V94" s="11"/>
       <c r="W94" s="22"/>
       <c r="X94" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -6528,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="M95" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N95" s="22"/>
       <c r="O95" s="22"/>
@@ -6541,7 +6640,7 @@
       <c r="V95" s="11"/>
       <c r="W95" s="22"/>
       <c r="X95" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -6570,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N96" s="11"/>
       <c r="O96" s="22"/>
@@ -6583,7 +6682,7 @@
       <c r="V96" s="11"/>
       <c r="W96" s="22"/>
       <c r="X96" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -6614,7 +6713,7 @@
         <v>4</v>
       </c>
       <c r="O97" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P97" s="11"/>
       <c r="Q97" s="22"/>
@@ -6625,7 +6724,7 @@
       <c r="V97" s="11"/>
       <c r="W97" s="22"/>
       <c r="X97" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -6656,7 +6755,7 @@
         <v>4</v>
       </c>
       <c r="O98" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P98" s="11"/>
       <c r="Q98" s="22"/>
@@ -6667,7 +6766,7 @@
       <c r="V98" s="11"/>
       <c r="W98" s="22"/>
       <c r="X98" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -6700,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="Q99" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R99" s="11"/>
       <c r="S99" s="22"/>
@@ -6709,7 +6808,7 @@
       <c r="V99" s="11"/>
       <c r="W99" s="22"/>
       <c r="X99" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -6732,7 +6831,7 @@
         <v>4</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -6751,7 +6850,7 @@
       <c r="V100" s="11"/>
       <c r="W100" s="22"/>
       <c r="X100" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -6774,7 +6873,7 @@
         <v>4</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
@@ -6793,7 +6892,7 @@
       <c r="V101" s="11"/>
       <c r="W101" s="22"/>
       <c r="X101" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -6816,7 +6915,7 @@
         <v>4</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
@@ -6835,7 +6934,7 @@
       <c r="V102" s="11"/>
       <c r="W102" s="22"/>
       <c r="X102" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -6858,7 +6957,7 @@
         <v>4</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
@@ -6877,7 +6976,7 @@
       <c r="V103" s="11"/>
       <c r="W103" s="22"/>
       <c r="X103" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -6912,14 +7011,14 @@
         <v>4</v>
       </c>
       <c r="S104" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T104" s="11"/>
       <c r="U104" s="22"/>
       <c r="V104" s="11"/>
       <c r="W104" s="22"/>
       <c r="X104" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -6942,7 +7041,7 @@
         <v>4</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
@@ -6961,7 +7060,7 @@
       <c r="V105" s="11"/>
       <c r="W105" s="22"/>
       <c r="X105" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -6984,7 +7083,7 @@
         <v>4</v>
       </c>
       <c r="G106" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
@@ -7003,7 +7102,7 @@
       <c r="V106" s="11"/>
       <c r="W106" s="22"/>
       <c r="X106" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -7032,7 +7131,7 @@
         <v>4</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N107" s="11"/>
       <c r="O107" s="22"/>
@@ -7045,7 +7144,7 @@
       <c r="V107" s="11"/>
       <c r="W107" s="22"/>
       <c r="X107" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -7074,7 +7173,7 @@
         <v>4</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N108" s="11"/>
       <c r="O108" s="22"/>
@@ -7087,7 +7186,7 @@
       <c r="V108" s="11"/>
       <c r="W108" s="22"/>
       <c r="X108" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -7110,7 +7209,7 @@
         <v>4</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
@@ -7129,7 +7228,7 @@
       <c r="V109" s="11"/>
       <c r="W109" s="22"/>
       <c r="X109" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -7152,7 +7251,7 @@
         <v>4</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
@@ -7171,7 +7270,7 @@
       <c r="V110" s="11"/>
       <c r="W110" s="22"/>
       <c r="X110" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -7202,7 +7301,7 @@
         <v>4</v>
       </c>
       <c r="O111" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P111" s="11"/>
       <c r="Q111" s="22"/>
@@ -7213,7 +7312,7 @@
       <c r="V111" s="11"/>
       <c r="W111" s="22"/>
       <c r="X111" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -7244,7 +7343,7 @@
         <v>4</v>
       </c>
       <c r="O112" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P112" s="11"/>
       <c r="Q112" s="22"/>
@@ -7255,7 +7354,7 @@
       <c r="V112" s="11"/>
       <c r="W112" s="22"/>
       <c r="X112" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -7278,7 +7377,7 @@
         <v>4</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
@@ -7297,7 +7396,7 @@
       <c r="V113" s="11"/>
       <c r="W113" s="22"/>
       <c r="X113" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -7320,7 +7419,7 @@
         <v>4</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
@@ -7339,7 +7438,7 @@
       <c r="V114" s="11"/>
       <c r="W114" s="22"/>
       <c r="X114" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -7362,7 +7461,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
@@ -7381,7 +7480,7 @@
       <c r="V115" s="11"/>
       <c r="W115" s="22"/>
       <c r="X115" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -7404,7 +7503,7 @@
         <v>4</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
@@ -7423,7 +7522,7 @@
       <c r="V116" s="11"/>
       <c r="W116" s="22"/>
       <c r="X116" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -7446,7 +7545,7 @@
         <v>4</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
@@ -7465,7 +7564,7 @@
       <c r="V117" s="11"/>
       <c r="W117" s="22"/>
       <c r="X117" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -7496,7 +7595,7 @@
         <v>4</v>
       </c>
       <c r="O118" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P118" s="11"/>
       <c r="Q118" s="22"/>
@@ -7507,7 +7606,7 @@
       <c r="V118" s="11"/>
       <c r="W118" s="22"/>
       <c r="X118" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -7538,7 +7637,7 @@
         <v>4</v>
       </c>
       <c r="O119" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P119" s="11"/>
       <c r="Q119" s="22"/>
@@ -7549,7 +7648,7 @@
       <c r="V119" s="11"/>
       <c r="W119" s="22"/>
       <c r="X119" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -7591,7 +7690,7 @@
       <c r="V120" s="11"/>
       <c r="W120" s="22"/>
       <c r="X120" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -7633,7 +7732,7 @@
       <c r="V121" s="11"/>
       <c r="W121" s="22"/>
       <c r="X121" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -7666,7 +7765,7 @@
         <v>4</v>
       </c>
       <c r="Q122" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R122" s="11"/>
       <c r="S122" s="22"/>
@@ -7675,7 +7774,7 @@
       <c r="V122" s="11"/>
       <c r="W122" s="22"/>
       <c r="X122" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -7710,14 +7809,14 @@
         <v>4</v>
       </c>
       <c r="S123" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T123" s="11"/>
       <c r="U123" s="22"/>
       <c r="V123" s="11"/>
       <c r="W123" s="22"/>
       <c r="X123" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -7742,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="I124" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J124" s="22"/>
       <c r="K124" s="22"/>
@@ -7759,7 +7858,7 @@
       <c r="V124" s="11"/>
       <c r="W124" s="22"/>
       <c r="X124" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -7782,7 +7881,7 @@
         <v>4</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
@@ -7801,7 +7900,7 @@
       <c r="V125" s="11"/>
       <c r="W125" s="22"/>
       <c r="X125" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -7824,7 +7923,7 @@
         <v>4</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
@@ -7843,7 +7942,7 @@
       <c r="V126" s="11"/>
       <c r="W126" s="22"/>
       <c r="X126" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -7866,7 +7965,7 @@
         <v>4</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
@@ -7885,7 +7984,7 @@
       <c r="V127" s="11"/>
       <c r="W127" s="22"/>
       <c r="X127" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -7908,7 +8007,7 @@
         <v>4</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
@@ -7927,7 +8026,7 @@
       <c r="V128" s="11"/>
       <c r="W128" s="22"/>
       <c r="X128" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -7958,7 +8057,7 @@
         <v>4</v>
       </c>
       <c r="O129" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P129" s="11"/>
       <c r="Q129" s="22"/>
@@ -7969,7 +8068,7 @@
       <c r="V129" s="11"/>
       <c r="W129" s="22"/>
       <c r="X129" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -7992,7 +8091,7 @@
         <v>4</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
@@ -8011,7 +8110,7 @@
       <c r="V130" s="11"/>
       <c r="W130" s="22"/>
       <c r="X130" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -8034,7 +8133,7 @@
         <v>4</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -8053,7 +8152,7 @@
       <c r="V131" s="11"/>
       <c r="W131" s="22"/>
       <c r="X131" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -8095,7 +8194,7 @@
       <c r="V132" s="11"/>
       <c r="W132" s="22"/>
       <c r="X132" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -8137,7 +8236,7 @@
       <c r="V133" s="11"/>
       <c r="W133" s="22"/>
       <c r="X133" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -8179,7 +8278,7 @@
       <c r="V134" s="11"/>
       <c r="W134" s="22"/>
       <c r="X134" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -8221,7 +8320,7 @@
       <c r="V135" s="11"/>
       <c r="W135" s="22"/>
       <c r="X135" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -8263,7 +8362,7 @@
       <c r="V136" s="11"/>
       <c r="W136" s="22"/>
       <c r="X136" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -8305,7 +8404,7 @@
       <c r="V137" s="11"/>
       <c r="W137" s="22"/>
       <c r="X137" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -8347,7 +8446,7 @@
       <c r="V138" s="22"/>
       <c r="W138" s="22"/>
       <c r="X138" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -8389,7 +8488,7 @@
       <c r="V139" s="22"/>
       <c r="W139" s="22"/>
       <c r="X139" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -8431,7 +8530,7 @@
       <c r="V140" s="22"/>
       <c r="W140" s="22"/>
       <c r="X140" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -8473,7 +8572,7 @@
       <c r="V141" s="22"/>
       <c r="W141" s="22"/>
       <c r="X141" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -8515,7 +8614,7 @@
       <c r="V142" s="22"/>
       <c r="W142" s="22"/>
       <c r="X142" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -8557,7 +8656,7 @@
       <c r="V143" s="22"/>
       <c r="W143" s="22"/>
       <c r="X143" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -8599,7 +8698,7 @@
       <c r="V144" s="22"/>
       <c r="W144" s="22"/>
       <c r="X144" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -8641,7 +8740,7 @@
       <c r="V145" s="22"/>
       <c r="W145" s="22"/>
       <c r="X145" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -8683,7 +8782,7 @@
       <c r="V146" s="22"/>
       <c r="W146" s="22"/>
       <c r="X146" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -8725,7 +8824,7 @@
       <c r="V147" s="22"/>
       <c r="W147" s="22"/>
       <c r="X147" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -8767,7 +8866,7 @@
       <c r="V148" s="22"/>
       <c r="W148" s="22"/>
       <c r="X148" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -8809,7 +8908,7 @@
       <c r="V149" s="22"/>
       <c r="W149" s="22"/>
       <c r="X149" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -8851,7 +8950,7 @@
       <c r="V150" s="22"/>
       <c r="W150" s="22"/>
       <c r="X150" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -8890,10 +8989,10 @@
         <v>4</v>
       </c>
       <c r="W151" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X151" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -8930,12 +9029,12 @@
         <v>4</v>
       </c>
       <c r="U152" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V152" s="22"/>
       <c r="W152" s="22"/>
       <c r="X152" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -8977,7 +9076,7 @@
       <c r="V153" s="22"/>
       <c r="W153" s="22"/>
       <c r="X153" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -9016,10 +9115,10 @@
         <v>4</v>
       </c>
       <c r="W154" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X154" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -9056,12 +9155,12 @@
         <v>4</v>
       </c>
       <c r="U155" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V155" s="22"/>
       <c r="W155" s="22"/>
       <c r="X155" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -9103,7 +9202,7 @@
       <c r="V156" s="22"/>
       <c r="W156" s="22"/>
       <c r="X156" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -9145,7 +9244,7 @@
       <c r="V157" s="22"/>
       <c r="W157" s="22"/>
       <c r="X157" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -9187,7 +9286,7 @@
       <c r="V158" s="22"/>
       <c r="W158" s="22"/>
       <c r="X158" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -9229,7 +9328,7 @@
       <c r="V159" s="22"/>
       <c r="W159" s="22"/>
       <c r="X159" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -9271,7 +9370,7 @@
       <c r="V160" s="22"/>
       <c r="W160" s="22"/>
       <c r="X160" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -9294,7 +9393,7 @@
         <v>4</v>
       </c>
       <c r="G161" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="22"/>
@@ -9313,7 +9412,7 @@
       <c r="V161" s="22"/>
       <c r="W161" s="22"/>
       <c r="X161" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -9344,7 +9443,7 @@
         <v>4</v>
       </c>
       <c r="O162" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P162" s="22"/>
       <c r="Q162" s="22"/>
@@ -9355,7 +9454,7 @@
       <c r="V162" s="22"/>
       <c r="W162" s="22"/>
       <c r="X162" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -9386,7 +9485,7 @@
         <v>4</v>
       </c>
       <c r="O163" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P163" s="22"/>
       <c r="Q163" s="22"/>
@@ -9397,7 +9496,7 @@
       <c r="V163" s="22"/>
       <c r="W163" s="22"/>
       <c r="X163" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -9428,7 +9527,7 @@
         <v>4</v>
       </c>
       <c r="O164" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P164" s="22"/>
       <c r="Q164" s="22"/>
@@ -9439,7 +9538,7 @@
       <c r="V164" s="22"/>
       <c r="W164" s="22"/>
       <c r="X164" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -9481,7 +9580,7 @@
       <c r="V165" s="22"/>
       <c r="W165" s="22"/>
       <c r="X165" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -9504,7 +9603,7 @@
         <v>4</v>
       </c>
       <c r="G166" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H166" s="22"/>
       <c r="I166" s="22"/>
@@ -9523,7 +9622,7 @@
       <c r="V166" s="22"/>
       <c r="W166" s="22"/>
       <c r="X166" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -9546,7 +9645,7 @@
         <v>4</v>
       </c>
       <c r="G167" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H167" s="22"/>
       <c r="I167" s="22"/>
@@ -9565,7 +9664,7 @@
       <c r="V167" s="22"/>
       <c r="W167" s="22"/>
       <c r="X167" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -9607,7 +9706,7 @@
       <c r="V168" s="22"/>
       <c r="W168" s="22"/>
       <c r="X168" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -9649,7 +9748,7 @@
       <c r="V169" s="22"/>
       <c r="W169" s="22"/>
       <c r="X169" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -9672,7 +9771,7 @@
         <v>4</v>
       </c>
       <c r="G170" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H170" s="22"/>
       <c r="I170" s="22"/>
@@ -9691,7 +9790,7 @@
       <c r="V170" s="22"/>
       <c r="W170" s="22"/>
       <c r="X170" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -9716,7 +9815,7 @@
         <v>4</v>
       </c>
       <c r="I171" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J171" s="22"/>
       <c r="K171" s="22"/>
@@ -9733,7 +9832,7 @@
       <c r="V171" s="22"/>
       <c r="W171" s="22"/>
       <c r="X171" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -9760,7 +9859,7 @@
         <v>4</v>
       </c>
       <c r="K172" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L172" s="22"/>
       <c r="M172" s="22"/>
@@ -9775,7 +9874,7 @@
       <c r="V172" s="22"/>
       <c r="W172" s="22"/>
       <c r="X172" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -9817,7 +9916,7 @@
       <c r="V173" s="22"/>
       <c r="W173" s="22"/>
       <c r="X173" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -9840,7 +9939,7 @@
         <v>4</v>
       </c>
       <c r="G174" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H174" s="22"/>
       <c r="I174" s="22"/>
@@ -9859,7 +9958,7 @@
       <c r="V174" s="22"/>
       <c r="W174" s="22"/>
       <c r="X174" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -9882,7 +9981,7 @@
         <v>4</v>
       </c>
       <c r="G175" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
@@ -9901,7 +10000,7 @@
       <c r="V175" s="22"/>
       <c r="W175" s="22"/>
       <c r="X175" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -9943,7 +10042,7 @@
       <c r="V176" s="22"/>
       <c r="W176" s="22"/>
       <c r="X176" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -9966,7 +10065,7 @@
         <v>4</v>
       </c>
       <c r="G177" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H177" s="22"/>
       <c r="I177" s="22"/>
@@ -9985,7 +10084,7 @@
       <c r="V177" s="22"/>
       <c r="W177" s="22"/>
       <c r="X177" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -10008,7 +10107,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H178" s="22"/>
       <c r="I178" s="22"/>
@@ -10027,7 +10126,7 @@
       <c r="V178" s="22"/>
       <c r="W178" s="22"/>
       <c r="X178" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -10069,7 +10168,7 @@
       <c r="V179" s="22"/>
       <c r="W179" s="22"/>
       <c r="X179" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -10111,7 +10210,7 @@
       <c r="V180" s="22"/>
       <c r="W180" s="22"/>
       <c r="X180" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:24">
@@ -10153,7 +10252,7 @@
       <c r="V181" s="22"/>
       <c r="W181" s="22"/>
       <c r="X181" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -10176,7 +10275,7 @@
         <v>4</v>
       </c>
       <c r="G182" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H182" s="22"/>
       <c r="I182" s="22"/>
@@ -10195,7 +10294,7 @@
       <c r="V182" s="22"/>
       <c r="W182" s="22"/>
       <c r="X182" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -10237,7 +10336,7 @@
       <c r="V183" s="22"/>
       <c r="W183" s="22"/>
       <c r="X183" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -10262,7 +10361,7 @@
         <v>4</v>
       </c>
       <c r="I184" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J184" s="22"/>
       <c r="K184" s="22"/>
@@ -10279,7 +10378,7 @@
       <c r="V184" s="22"/>
       <c r="W184" s="22"/>
       <c r="X184" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -10304,7 +10403,7 @@
         <v>4</v>
       </c>
       <c r="I185" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J185" s="22"/>
       <c r="K185" s="22"/>
@@ -10321,7 +10420,7 @@
       <c r="V185" s="22"/>
       <c r="W185" s="22"/>
       <c r="X185" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -10348,7 +10447,7 @@
         <v>4</v>
       </c>
       <c r="K186" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L186" s="22"/>
       <c r="M186" s="22"/>
@@ -10363,7 +10462,7 @@
       <c r="V186" s="22"/>
       <c r="W186" s="22"/>
       <c r="X186" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -10386,7 +10485,7 @@
         <v>4</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H187" s="22"/>
       <c r="I187" s="22"/>
@@ -10405,7 +10504,7 @@
       <c r="V187" s="22"/>
       <c r="W187" s="22"/>
       <c r="X187" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -10447,7 +10546,7 @@
       <c r="V188" s="22"/>
       <c r="W188" s="22"/>
       <c r="X188" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -10470,7 +10569,7 @@
         <v>4</v>
       </c>
       <c r="G189" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H189" s="22"/>
       <c r="I189" s="22"/>
@@ -10489,7 +10588,7 @@
       <c r="V189" s="22"/>
       <c r="W189" s="22"/>
       <c r="X189" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -10531,7 +10630,7 @@
       <c r="V190" s="22"/>
       <c r="W190" s="22"/>
       <c r="X190" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -10573,7 +10672,7 @@
       <c r="V191" s="22"/>
       <c r="W191" s="22"/>
       <c r="X191" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -10615,7 +10714,7 @@
       <c r="V192" s="22"/>
       <c r="W192" s="22"/>
       <c r="X192" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -10638,7 +10737,7 @@
         <v>4</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H193" s="22"/>
       <c r="I193" s="22"/>
@@ -10657,7 +10756,7 @@
       <c r="V193" s="22"/>
       <c r="W193" s="22"/>
       <c r="X193" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -10699,7 +10798,7 @@
       <c r="V194" s="22"/>
       <c r="W194" s="22"/>
       <c r="X194" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -10724,7 +10823,7 @@
         <v>4</v>
       </c>
       <c r="I195" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J195" s="22"/>
       <c r="K195" s="22"/>
@@ -10741,7 +10840,7 @@
       <c r="V195" s="22"/>
       <c r="W195" s="22"/>
       <c r="X195" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -10768,7 +10867,7 @@
         <v>4</v>
       </c>
       <c r="K196" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L196" s="22"/>
       <c r="M196" s="22"/>
@@ -10783,7 +10882,7 @@
       <c r="V196" s="22"/>
       <c r="W196" s="22"/>
       <c r="X196" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -10806,7 +10905,7 @@
         <v>4</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H197" s="22"/>
       <c r="I197" s="22"/>
@@ -10825,7 +10924,7 @@
       <c r="V197" s="22"/>
       <c r="W197" s="22"/>
       <c r="X197" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -10848,7 +10947,7 @@
         <v>4</v>
       </c>
       <c r="G198" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H198" s="22"/>
       <c r="I198" s="22"/>
@@ -10867,7 +10966,7 @@
       <c r="V198" s="22"/>
       <c r="W198" s="22"/>
       <c r="X198" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -10890,7 +10989,7 @@
         <v>4</v>
       </c>
       <c r="G199" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H199" s="22"/>
       <c r="I199" s="22"/>
@@ -10909,7 +11008,7 @@
       <c r="V199" s="22"/>
       <c r="W199" s="22"/>
       <c r="X199" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -10951,7 +11050,7 @@
       <c r="V200" s="22"/>
       <c r="W200" s="22"/>
       <c r="X200" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -10993,7 +11092,7 @@
       <c r="V201" s="22"/>
       <c r="W201" s="22"/>
       <c r="X201" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -11035,7 +11134,7 @@
       <c r="V202" s="22"/>
       <c r="W202" s="22"/>
       <c r="X202" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -11058,7 +11157,7 @@
         <v>4</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H203" s="22"/>
       <c r="I203" s="22"/>
@@ -11077,7 +11176,7 @@
       <c r="V203" s="22"/>
       <c r="W203" s="22"/>
       <c r="X203" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -11119,7 +11218,7 @@
       <c r="V204" s="22"/>
       <c r="W204" s="22"/>
       <c r="X204" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -11144,7 +11243,7 @@
         <v>4</v>
       </c>
       <c r="I205" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J205" s="22"/>
       <c r="K205" s="22"/>
@@ -11161,7 +11260,7 @@
       <c r="V205" s="22"/>
       <c r="W205" s="22"/>
       <c r="X205" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -11186,7 +11285,7 @@
         <v>4</v>
       </c>
       <c r="I206" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J206" s="22"/>
       <c r="K206" s="22"/>
@@ -11203,7 +11302,7 @@
       <c r="V206" s="22"/>
       <c r="W206" s="22"/>
       <c r="X206" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -11226,7 +11325,7 @@
         <v>4</v>
       </c>
       <c r="G207" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
@@ -11245,7 +11344,7 @@
       <c r="V207" s="22"/>
       <c r="W207" s="22"/>
       <c r="X207" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -11287,7 +11386,7 @@
       <c r="V208" s="22"/>
       <c r="W208" s="22"/>
       <c r="X208" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -11329,7 +11428,7 @@
       <c r="V209" s="22"/>
       <c r="W209" s="22"/>
       <c r="X209" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -11371,7 +11470,7 @@
       <c r="V210" s="22"/>
       <c r="W210" s="22"/>
       <c r="X210" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -11394,7 +11493,7 @@
         <v>4</v>
       </c>
       <c r="G211" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H211" s="22"/>
       <c r="I211" s="22"/>
@@ -11413,7 +11512,7 @@
       <c r="V211" s="22"/>
       <c r="W211" s="22"/>
       <c r="X211" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -11455,7 +11554,7 @@
       <c r="V212" s="22"/>
       <c r="W212" s="22"/>
       <c r="X212" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -11480,7 +11579,7 @@
         <v>4</v>
       </c>
       <c r="I213" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J213" s="22"/>
       <c r="K213" s="22"/>
@@ -11497,7 +11596,7 @@
       <c r="V213" s="22"/>
       <c r="W213" s="22"/>
       <c r="X213" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -11522,7 +11621,7 @@
         <v>4</v>
       </c>
       <c r="I214" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J214" s="22"/>
       <c r="K214" s="22"/>
@@ -11539,7 +11638,7 @@
       <c r="V214" s="22"/>
       <c r="W214" s="22"/>
       <c r="X214" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -11566,7 +11665,7 @@
         <v>4</v>
       </c>
       <c r="K215" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L215" s="22"/>
       <c r="M215" s="22"/>
@@ -11581,7 +11680,7 @@
       <c r="V215" s="22"/>
       <c r="W215" s="22"/>
       <c r="X215" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -11623,7 +11722,7 @@
       <c r="V216" s="22"/>
       <c r="W216" s="22"/>
       <c r="X216" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="217" spans="1:24">
@@ -11665,7 +11764,7 @@
       <c r="V217" s="22"/>
       <c r="W217" s="22"/>
       <c r="X217" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -11688,7 +11787,7 @@
         <v>4</v>
       </c>
       <c r="G218" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H218" s="22"/>
       <c r="I218" s="22"/>
@@ -11707,7 +11806,7 @@
       <c r="V218" s="22"/>
       <c r="W218" s="22"/>
       <c r="X218" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -11732,7 +11831,7 @@
         <v>4</v>
       </c>
       <c r="I219" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J219" s="22"/>
       <c r="K219" s="22"/>
@@ -11749,7 +11848,7 @@
       <c r="V219" s="22"/>
       <c r="W219" s="22"/>
       <c r="X219" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -11774,7 +11873,7 @@
         <v>4</v>
       </c>
       <c r="I220" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J220" s="22"/>
       <c r="K220" s="22"/>
@@ -11791,7 +11890,7 @@
       <c r="V220" s="22"/>
       <c r="W220" s="22"/>
       <c r="X220" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -11818,7 +11917,7 @@
         <v>4</v>
       </c>
       <c r="K221" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L221" s="22"/>
       <c r="M221" s="22"/>
@@ -11833,7 +11932,7 @@
       <c r="V221" s="22"/>
       <c r="W221" s="22"/>
       <c r="X221" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" spans="1:24">
@@ -11875,7 +11974,7 @@
       <c r="V222" s="22"/>
       <c r="W222" s="22"/>
       <c r="X222" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="223" spans="1:24">
@@ -11917,7 +12016,7 @@
       <c r="V223" s="22"/>
       <c r="W223" s="22"/>
       <c r="X223" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -11959,7 +12058,7 @@
       <c r="V224" s="22"/>
       <c r="W224" s="22"/>
       <c r="X224" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="1:24">
@@ -11982,7 +12081,7 @@
         <v>4</v>
       </c>
       <c r="G225" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H225" s="22"/>
       <c r="I225" s="22"/>
@@ -12001,7 +12100,7 @@
       <c r="V225" s="22"/>
       <c r="W225" s="22"/>
       <c r="X225" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="226" spans="1:24">
@@ -12026,7 +12125,7 @@
         <v>4</v>
       </c>
       <c r="I226" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J226" s="22"/>
       <c r="K226" s="22"/>
@@ -12043,7 +12142,7 @@
       <c r="V226" s="22"/>
       <c r="W226" s="22"/>
       <c r="X226" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="227" spans="1:24">
@@ -12068,7 +12167,7 @@
         <v>4</v>
       </c>
       <c r="I227" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J227" s="22"/>
       <c r="K227" s="22"/>
@@ -12085,7 +12184,7 @@
       <c r="V227" s="22"/>
       <c r="W227" s="22"/>
       <c r="X227" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="228" spans="1:24">
@@ -12112,7 +12211,7 @@
         <v>4</v>
       </c>
       <c r="K228" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
@@ -12127,7 +12226,7 @@
       <c r="V228" s="22"/>
       <c r="W228" s="22"/>
       <c r="X228" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="229" spans="1:24">
@@ -12169,7 +12268,7 @@
       <c r="V229" s="22"/>
       <c r="W229" s="22"/>
       <c r="X229" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="230" spans="1:24">
@@ -12192,7 +12291,7 @@
         <v>4</v>
       </c>
       <c r="G230" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H230" s="22"/>
       <c r="I230" s="22"/>
@@ -12211,7 +12310,7 @@
       <c r="V230" s="22"/>
       <c r="W230" s="22"/>
       <c r="X230" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="231" spans="1:24">
@@ -12253,7 +12352,7 @@
       <c r="V231" s="22"/>
       <c r="W231" s="22"/>
       <c r="X231" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="232" spans="1:24">
@@ -12295,7 +12394,7 @@
       <c r="V232" s="22"/>
       <c r="W232" s="22"/>
       <c r="X232" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="233" spans="1:24">
@@ -12318,7 +12417,7 @@
         <v>4</v>
       </c>
       <c r="G233" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H233" s="22"/>
       <c r="I233" s="22"/>
@@ -12337,7 +12436,7 @@
       <c r="V233" s="22"/>
       <c r="W233" s="22"/>
       <c r="X233" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="234" spans="1:24">
@@ -12362,7 +12461,7 @@
         <v>4</v>
       </c>
       <c r="I234" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J234" s="22"/>
       <c r="K234" s="22"/>
@@ -12379,7 +12478,7 @@
       <c r="V234" s="22"/>
       <c r="W234" s="22"/>
       <c r="X234" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="235" spans="1:24">
@@ -12404,7 +12503,7 @@
         <v>4</v>
       </c>
       <c r="I235" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J235" s="22"/>
       <c r="K235" s="22"/>
@@ -12421,7 +12520,7 @@
       <c r="V235" s="22"/>
       <c r="W235" s="22"/>
       <c r="X235" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="236" spans="1:24">
@@ -12448,7 +12547,7 @@
         <v>4</v>
       </c>
       <c r="K236" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L236" s="22"/>
       <c r="M236" s="22"/>
@@ -12463,7 +12562,7 @@
       <c r="V236" s="22"/>
       <c r="W236" s="22"/>
       <c r="X236" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="237" spans="1:24">
@@ -12505,7 +12604,7 @@
       <c r="V237" s="22"/>
       <c r="W237" s="22"/>
       <c r="X237" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="1:24">
@@ -12528,7 +12627,7 @@
         <v>4</v>
       </c>
       <c r="G238" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H238" s="22"/>
       <c r="I238" s="22"/>
@@ -12547,7 +12646,7 @@
       <c r="V238" s="22"/>
       <c r="W238" s="22"/>
       <c r="X238" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="239" spans="1:24">
@@ -12589,7 +12688,7 @@
       <c r="V239" s="22"/>
       <c r="W239" s="22"/>
       <c r="X239" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="240" spans="1:24">
@@ -12631,7 +12730,7 @@
       <c r="V240" s="22"/>
       <c r="W240" s="22"/>
       <c r="X240" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="241" spans="1:24">
@@ -12673,7 +12772,7 @@
       <c r="V241" s="11"/>
       <c r="W241" s="22"/>
       <c r="X241" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="242" spans="1:24">
@@ -12715,7 +12814,7 @@
       <c r="V242" s="11"/>
       <c r="W242" s="22"/>
       <c r="X242" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -12757,7 +12856,7 @@
       <c r="V243" s="11"/>
       <c r="W243" s="22"/>
       <c r="X243" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="1:24">
@@ -12799,7 +12898,7 @@
       <c r="V244" s="23"/>
       <c r="W244" s="22"/>
       <c r="X244" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="245" spans="1:24">
@@ -12841,7 +12940,7 @@
       <c r="V245" s="23"/>
       <c r="W245" s="22"/>
       <c r="X245" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="246" spans="1:24">
@@ -12883,7 +12982,7 @@
       <c r="V246" s="23"/>
       <c r="W246" s="22"/>
       <c r="X246" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="1:24">
@@ -12908,7 +13007,7 @@
         <v>4</v>
       </c>
       <c r="I247" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J247" s="22"/>
       <c r="K247" s="22"/>
@@ -12925,7 +13024,7 @@
       <c r="V247" s="23"/>
       <c r="W247" s="22"/>
       <c r="X247" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="248" spans="1:24">
@@ -12952,7 +13051,7 @@
         <v>4</v>
       </c>
       <c r="K248" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L248" s="23"/>
       <c r="M248" s="22"/>
@@ -12967,7 +13066,7 @@
       <c r="V248" s="23"/>
       <c r="W248" s="22"/>
       <c r="X248" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="249" spans="1:24">
@@ -12998,7 +13097,7 @@
         <v>4</v>
       </c>
       <c r="O249" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P249" s="23"/>
       <c r="Q249" s="22"/>
@@ -13009,7 +13108,7 @@
       <c r="V249" s="23"/>
       <c r="W249" s="22"/>
       <c r="X249" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="250" spans="1:24">
@@ -13040,7 +13139,7 @@
         <v>4</v>
       </c>
       <c r="O250" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P250" s="22"/>
       <c r="Q250" s="22"/>
@@ -13051,7 +13150,7 @@
       <c r="V250" s="22"/>
       <c r="W250" s="22"/>
       <c r="X250" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="1:24">
@@ -13074,7 +13173,7 @@
         <v>4</v>
       </c>
       <c r="G251" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H251" s="22"/>
       <c r="I251" s="22"/>
@@ -13093,7 +13192,7 @@
       <c r="V251" s="11"/>
       <c r="W251" s="22"/>
       <c r="X251" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="252" spans="1:24">
@@ -13116,7 +13215,7 @@
         <v>4</v>
       </c>
       <c r="G252" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H252" s="22"/>
       <c r="I252" s="22"/>
@@ -13135,7 +13234,7 @@
       <c r="V252" s="11"/>
       <c r="W252" s="22"/>
       <c r="X252" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="253" spans="1:24">
@@ -13158,7 +13257,7 @@
         <v>4</v>
       </c>
       <c r="G253" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H253" s="22"/>
       <c r="I253" s="22"/>
@@ -13177,7 +13276,7 @@
       <c r="V253" s="11"/>
       <c r="W253" s="22"/>
       <c r="X253" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="254" spans="1:24">
@@ -13208,7 +13307,7 @@
         <v>4</v>
       </c>
       <c r="O254" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P254" s="11"/>
       <c r="Q254" s="22"/>
@@ -13219,7 +13318,7 @@
       <c r="V254" s="11"/>
       <c r="W254" s="22"/>
       <c r="X254" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="255" spans="1:24">
@@ -13250,7 +13349,7 @@
         <v>4</v>
       </c>
       <c r="O255" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P255" s="11"/>
       <c r="Q255" s="22"/>
@@ -13261,7 +13360,7 @@
       <c r="V255" s="11"/>
       <c r="W255" s="22"/>
       <c r="X255" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="256" spans="1:24">
@@ -13292,7 +13391,7 @@
         <v>4</v>
       </c>
       <c r="O256" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P256" s="11"/>
       <c r="Q256" s="22"/>
@@ -13303,7 +13402,7 @@
       <c r="V256" s="11"/>
       <c r="W256" s="22"/>
       <c r="X256" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="257" spans="1:24">
@@ -13334,7 +13433,7 @@
         <v>4</v>
       </c>
       <c r="O257" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P257" s="11"/>
       <c r="Q257" s="22"/>
@@ -13345,7 +13444,7 @@
       <c r="V257" s="11"/>
       <c r="W257" s="22"/>
       <c r="X257" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="258" spans="1:24">
@@ -13376,7 +13475,7 @@
         <v>4</v>
       </c>
       <c r="O258" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P258" s="11"/>
       <c r="Q258" s="22"/>
@@ -13387,7 +13486,7 @@
       <c r="V258" s="11"/>
       <c r="W258" s="22"/>
       <c r="X258" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="259" spans="1:24">
@@ -13418,7 +13517,7 @@
         <v>4</v>
       </c>
       <c r="O259" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P259" s="11"/>
       <c r="Q259" s="22"/>
@@ -13429,7 +13528,7 @@
       <c r="V259" s="11"/>
       <c r="W259" s="22"/>
       <c r="X259" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="260" spans="1:24">
@@ -13452,7 +13551,7 @@
         <v>4</v>
       </c>
       <c r="G260" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H260" s="22"/>
       <c r="I260" s="22"/>
@@ -13471,7 +13570,7 @@
       <c r="V260" s="11"/>
       <c r="W260" s="22"/>
       <c r="X260" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="261" spans="1:24">
@@ -13496,7 +13595,7 @@
         <v>4</v>
       </c>
       <c r="I261" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J261" s="22"/>
       <c r="K261" s="22"/>
@@ -13513,7 +13612,7 @@
       <c r="V261" s="11"/>
       <c r="W261" s="22"/>
       <c r="X261" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="262" spans="1:24">
@@ -13540,7 +13639,7 @@
         <v>4</v>
       </c>
       <c r="K262" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L262" s="11"/>
       <c r="M262" s="22"/>
@@ -13555,7 +13654,7 @@
       <c r="V262" s="11"/>
       <c r="W262" s="22"/>
       <c r="X262" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="263" spans="1:24">
@@ -13578,7 +13677,7 @@
         <v>4</v>
       </c>
       <c r="G263" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H263" s="22"/>
       <c r="I263" s="22"/>
@@ -13597,7 +13696,7 @@
       <c r="V263" s="11"/>
       <c r="W263" s="22"/>
       <c r="X263" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="264" spans="1:24">
@@ -13639,7 +13738,7 @@
       <c r="V264" s="11"/>
       <c r="W264" s="22"/>
       <c r="X264" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="265" spans="1:24">
@@ -13670,7 +13769,7 @@
         <v>4</v>
       </c>
       <c r="O265" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P265" s="11"/>
       <c r="Q265" s="22"/>
@@ -13681,7 +13780,7 @@
       <c r="V265" s="11"/>
       <c r="W265" s="22"/>
       <c r="X265" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -13712,7 +13811,7 @@
         <v>4</v>
       </c>
       <c r="O266" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P266" s="11"/>
       <c r="Q266" s="22"/>
@@ -13723,7 +13822,7 @@
       <c r="V266" s="11"/>
       <c r="W266" s="22"/>
       <c r="X266" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="267" spans="1:24">
@@ -13756,7 +13855,7 @@
         <v>4</v>
       </c>
       <c r="Q267" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R267" s="11"/>
       <c r="S267" s="22"/>
@@ -13765,7 +13864,7 @@
       <c r="V267" s="11"/>
       <c r="W267" s="22"/>
       <c r="X267" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="268" spans="1:24">
@@ -13788,7 +13887,7 @@
         <v>4</v>
       </c>
       <c r="G268" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H268" s="22"/>
       <c r="I268" s="22"/>
@@ -13807,7 +13906,7 @@
       <c r="V268" s="11"/>
       <c r="W268" s="22"/>
       <c r="X268" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="269" spans="1:24">
@@ -13830,7 +13929,7 @@
         <v>4</v>
       </c>
       <c r="G269" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H269" s="22"/>
       <c r="I269" s="22"/>
@@ -13849,7 +13948,7 @@
       <c r="V269" s="11"/>
       <c r="W269" s="22"/>
       <c r="X269" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="270" spans="1:24">
@@ -13880,7 +13979,7 @@
         <v>4</v>
       </c>
       <c r="O270" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P270" s="11"/>
       <c r="Q270" s="22"/>
@@ -13891,7 +13990,7 @@
       <c r="V270" s="11"/>
       <c r="W270" s="22"/>
       <c r="X270" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="271" spans="1:24">
@@ -13922,7 +14021,7 @@
         <v>4</v>
       </c>
       <c r="O271" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P271" s="11"/>
       <c r="Q271" s="22"/>
@@ -13933,7 +14032,7 @@
       <c r="V271" s="11"/>
       <c r="W271" s="22"/>
       <c r="X271" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="272" spans="1:24">
@@ -13968,14 +14067,14 @@
         <v>4</v>
       </c>
       <c r="S272" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T272" s="11"/>
       <c r="U272" s="22"/>
       <c r="V272" s="11"/>
       <c r="W272" s="22"/>
       <c r="X272" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="273" spans="1:24">
@@ -14006,7 +14105,7 @@
         <v>4</v>
       </c>
       <c r="O273" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P273" s="11"/>
       <c r="Q273" s="22"/>
@@ -14017,7 +14116,7 @@
       <c r="V273" s="11"/>
       <c r="W273" s="22"/>
       <c r="X273" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="274" spans="1:24">
@@ -14048,7 +14147,7 @@
         <v>4</v>
       </c>
       <c r="O274" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P274" s="11"/>
       <c r="Q274" s="22"/>
@@ -14059,7 +14158,7 @@
       <c r="V274" s="11"/>
       <c r="W274" s="22"/>
       <c r="X274" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="275" spans="1:24">
@@ -14088,7 +14187,7 @@
         <v>4</v>
       </c>
       <c r="M275" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N275" s="11"/>
       <c r="O275" s="22"/>
@@ -14101,7 +14200,7 @@
       <c r="V275" s="11"/>
       <c r="W275" s="22"/>
       <c r="X275" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="276" spans="1:24">
@@ -14130,7 +14229,7 @@
         <v>4</v>
       </c>
       <c r="M276" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N276" s="11"/>
       <c r="O276" s="22"/>
@@ -14143,7 +14242,7 @@
       <c r="V276" s="11"/>
       <c r="W276" s="22"/>
       <c r="X276" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277" spans="1:24">
@@ -14166,7 +14265,7 @@
         <v>4</v>
       </c>
       <c r="G277" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H277" s="22"/>
       <c r="I277" s="22"/>
@@ -14185,7 +14284,7 @@
       <c r="V277" s="11"/>
       <c r="W277" s="22"/>
       <c r="X277" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="278" spans="1:24">
@@ -14227,7 +14326,7 @@
       <c r="V278" s="11"/>
       <c r="W278" s="22"/>
       <c r="X278" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="279" spans="1:24">
@@ -14262,14 +14361,14 @@
         <v>4</v>
       </c>
       <c r="S279" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T279" s="11"/>
       <c r="U279" s="22"/>
       <c r="V279" s="11"/>
       <c r="W279" s="22"/>
       <c r="X279" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="280" spans="1:24">
@@ -14298,7 +14397,7 @@
         <v>4</v>
       </c>
       <c r="M280" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N280" s="11"/>
       <c r="O280" s="22"/>
@@ -14311,7 +14410,7 @@
       <c r="V280" s="11"/>
       <c r="W280" s="22"/>
       <c r="X280" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="281" spans="1:24">
@@ -14342,7 +14441,7 @@
         <v>4</v>
       </c>
       <c r="O281" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P281" s="11"/>
       <c r="Q281" s="22"/>
@@ -14353,7 +14452,7 @@
       <c r="V281" s="11"/>
       <c r="W281" s="22"/>
       <c r="X281" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="282" spans="1:24">
@@ -14384,7 +14483,7 @@
         <v>4</v>
       </c>
       <c r="O282" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P282" s="11"/>
       <c r="Q282" s="22"/>
@@ -14395,7 +14494,7 @@
       <c r="V282" s="11"/>
       <c r="W282" s="22"/>
       <c r="X282" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="283" spans="1:24">
@@ -14418,7 +14517,7 @@
         <v>4</v>
       </c>
       <c r="G283" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H283" s="22"/>
       <c r="I283" s="22"/>
@@ -14437,7 +14536,7 @@
       <c r="V283" s="11"/>
       <c r="W283" s="22"/>
       <c r="X283" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="284" spans="1:24">
@@ -14479,7 +14578,7 @@
       <c r="V284" s="11"/>
       <c r="W284" s="22"/>
       <c r="X284" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="285" spans="1:24">
@@ -14502,7 +14601,7 @@
         <v>4</v>
       </c>
       <c r="G285" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H285" s="22"/>
       <c r="I285" s="22"/>
@@ -14521,7 +14620,7 @@
       <c r="V285" s="11"/>
       <c r="W285" s="22"/>
       <c r="X285" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="286" spans="1:24">
@@ -14544,7 +14643,7 @@
         <v>4</v>
       </c>
       <c r="G286" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H286" s="22"/>
       <c r="I286" s="22"/>
@@ -14563,7 +14662,7 @@
       <c r="V286" s="11"/>
       <c r="W286" s="22"/>
       <c r="X286" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="287" spans="1:24">
@@ -14586,7 +14685,7 @@
         <v>4</v>
       </c>
       <c r="G287" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H287" s="22"/>
       <c r="I287" s="22"/>
@@ -14605,7 +14704,7 @@
       <c r="V287" s="11"/>
       <c r="W287" s="22"/>
       <c r="X287" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="288" spans="1:24">
@@ -14628,7 +14727,7 @@
         <v>4</v>
       </c>
       <c r="G288" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H288" s="22"/>
       <c r="I288" s="22"/>
@@ -14647,7 +14746,7 @@
       <c r="V288" s="11"/>
       <c r="W288" s="22"/>
       <c r="X288" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="289" spans="1:24">
@@ -14670,7 +14769,7 @@
         <v>4</v>
       </c>
       <c r="G289" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H289" s="22"/>
       <c r="I289" s="22"/>
@@ -14689,7 +14788,7 @@
       <c r="V289" s="11"/>
       <c r="W289" s="22"/>
       <c r="X289" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="290" spans="1:24">
@@ -14697,7 +14796,7 @@
         <v>155</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>435</v>
+        <v>567</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>157</v>
@@ -14712,7 +14811,7 @@
         <v>4</v>
       </c>
       <c r="G290" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H290" s="22"/>
       <c r="I290" s="22"/>
@@ -14731,7 +14830,7 @@
       <c r="V290" s="11"/>
       <c r="W290" s="22"/>
       <c r="X290" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="291" spans="1:24">
@@ -14739,7 +14838,7 @@
         <v>155</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>157</v>
@@ -14773,7 +14872,7 @@
       <c r="V291" s="11"/>
       <c r="W291" s="22"/>
       <c r="X291" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="292" spans="1:24">
@@ -14781,7 +14880,7 @@
         <v>155</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>157</v>
@@ -14796,7 +14895,7 @@
         <v>4</v>
       </c>
       <c r="G292" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H292" s="22"/>
       <c r="I292" s="22"/>
@@ -14815,7 +14914,7 @@
       <c r="V292" s="11"/>
       <c r="W292" s="22"/>
       <c r="X292" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="293" spans="1:24">
@@ -14823,7 +14922,7 @@
         <v>155</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>157</v>
@@ -14857,7 +14956,7 @@
       <c r="V293" s="11"/>
       <c r="W293" s="22"/>
       <c r="X293" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="294" spans="1:24">
@@ -14865,10 +14964,10 @@
         <v>155</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="D294" s="22" t="s">
         <v>4</v>
@@ -14880,7 +14979,7 @@
         <v>4</v>
       </c>
       <c r="G294" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H294" s="22"/>
       <c r="I294" s="22"/>
@@ -14899,7 +14998,7 @@
       <c r="V294" s="11"/>
       <c r="W294" s="22"/>
       <c r="X294" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="295" spans="1:24">
@@ -14907,7 +15006,7 @@
         <v>155</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>157</v>
@@ -14922,7 +15021,7 @@
         <v>4</v>
       </c>
       <c r="G295" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H295" s="22"/>
       <c r="I295" s="22"/>
@@ -14941,7 +15040,7 @@
       <c r="V295" s="11"/>
       <c r="W295" s="22"/>
       <c r="X295" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="296" spans="1:24">
@@ -14949,7 +15048,7 @@
         <v>155</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>157</v>
@@ -14964,7 +15063,7 @@
         <v>4</v>
       </c>
       <c r="G296" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H296" s="22"/>
       <c r="I296" s="22"/>
@@ -14983,7 +15082,7 @@
       <c r="V296" s="11"/>
       <c r="W296" s="22"/>
       <c r="X296" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="297" spans="1:24">
@@ -14991,7 +15090,7 @@
         <v>155</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>157</v>
@@ -15006,7 +15105,7 @@
         <v>4</v>
       </c>
       <c r="G297" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H297" s="22"/>
       <c r="I297" s="22"/>
@@ -15025,7 +15124,7 @@
       <c r="V297" s="11"/>
       <c r="W297" s="22"/>
       <c r="X297" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="298" spans="1:24">
@@ -15033,10 +15132,10 @@
         <v>155</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="D298" s="22" t="s">
         <v>4</v>
@@ -15048,7 +15147,7 @@
         <v>4</v>
       </c>
       <c r="G298" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H298" s="22"/>
       <c r="I298" s="22"/>
@@ -15067,7 +15166,7 @@
       <c r="V298" s="11"/>
       <c r="W298" s="22"/>
       <c r="X298" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="299" spans="1:24">
@@ -15078,7 +15177,7 @@
         <v>426</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D299" s="22" t="s">
         <v>4</v>
@@ -15090,7 +15189,7 @@
         <v>4</v>
       </c>
       <c r="G299" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H299" s="22"/>
       <c r="I299" s="22"/>
@@ -15109,7 +15208,7 @@
       <c r="V299" s="11"/>
       <c r="W299" s="22"/>
       <c r="X299" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="300" spans="1:24">
@@ -15117,7 +15216,7 @@
         <v>155</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>157</v>
@@ -15126,13 +15225,13 @@
         <v>4</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F300" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G300" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H300" s="22"/>
       <c r="I300" s="22"/>
@@ -15151,7 +15250,7 @@
       <c r="V300" s="11"/>
       <c r="W300" s="22"/>
       <c r="X300" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="301" spans="1:24">
@@ -15159,7 +15258,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>157</v>
@@ -15174,7 +15273,7 @@
         <v>4</v>
       </c>
       <c r="G301" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H301" s="22"/>
       <c r="I301" s="22"/>
@@ -15193,7 +15292,7 @@
       <c r="V301" s="11"/>
       <c r="W301" s="22"/>
       <c r="X301" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="302" spans="1:24">
@@ -15201,7 +15300,7 @@
         <v>155</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>157</v>
@@ -15216,7 +15315,7 @@
         <v>4</v>
       </c>
       <c r="G302" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H302" s="22"/>
       <c r="I302" s="22"/>
@@ -15235,7 +15334,7 @@
       <c r="V302" s="11"/>
       <c r="W302" s="22"/>
       <c r="X302" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="303" spans="1:24">
@@ -15243,7 +15342,7 @@
         <v>155</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>157</v>
@@ -15252,13 +15351,13 @@
         <v>4</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F303" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G303" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H303" s="22"/>
       <c r="I303" s="22"/>
@@ -15277,7 +15376,7 @@
       <c r="V303" s="11"/>
       <c r="W303" s="22"/>
       <c r="X303" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="304" spans="1:24">
@@ -15285,7 +15384,7 @@
         <v>155</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>157</v>
@@ -15294,13 +15393,13 @@
         <v>4</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F304" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G304" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H304" s="22"/>
       <c r="I304" s="22"/>
@@ -15319,7 +15418,7 @@
       <c r="V304" s="11"/>
       <c r="W304" s="22"/>
       <c r="X304" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="305" spans="1:24">
@@ -15327,7 +15426,7 @@
         <v>155</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>157</v>
@@ -15342,7 +15441,7 @@
         <v>4</v>
       </c>
       <c r="G305" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H305" s="22"/>
       <c r="I305" s="22"/>
@@ -15361,7 +15460,7 @@
       <c r="V305" s="11"/>
       <c r="W305" s="22"/>
       <c r="X305" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="306" spans="1:24">
@@ -15369,7 +15468,7 @@
         <v>155</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>157</v>
@@ -15384,7 +15483,7 @@
         <v>4</v>
       </c>
       <c r="G306" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H306" s="22"/>
       <c r="I306" s="22"/>
@@ -15403,7 +15502,7 @@
       <c r="V306" s="11"/>
       <c r="W306" s="22"/>
       <c r="X306" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="307" spans="1:24">
@@ -15411,7 +15510,7 @@
         <v>155</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>191</v>
@@ -15430,7 +15529,7 @@
         <v>4</v>
       </c>
       <c r="K307" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L307" s="11"/>
       <c r="M307" s="22"/>
@@ -15445,7 +15544,7 @@
       <c r="V307" s="11"/>
       <c r="W307" s="22"/>
       <c r="X307" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="308" spans="1:24">
@@ -15453,7 +15552,7 @@
         <v>155</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>157</v>
@@ -15468,7 +15567,7 @@
         <v>4</v>
       </c>
       <c r="G308" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H308" s="22"/>
       <c r="I308" s="22"/>
@@ -15487,7 +15586,7 @@
       <c r="V308" s="11"/>
       <c r="W308" s="22"/>
       <c r="X308" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="1:24">
@@ -15495,7 +15594,7 @@
         <v>155</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>194</v>
@@ -15504,13 +15603,13 @@
         <v>4</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F309" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G309" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H309" s="22"/>
       <c r="I309" s="22"/>
@@ -15529,7 +15628,7 @@
       <c r="V309" s="11"/>
       <c r="W309" s="22"/>
       <c r="X309" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="310" spans="1:24">
@@ -15537,16 +15636,16 @@
         <v>155</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="D310" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F310" s="11"/>
       <c r="G310" s="11"/>
@@ -15558,7 +15657,7 @@
         <v>4</v>
       </c>
       <c r="M310" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N310" s="11"/>
       <c r="O310" s="11"/>
@@ -15571,7 +15670,7 @@
       <c r="V310" s="11"/>
       <c r="W310" s="11"/>
       <c r="X310" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="311" spans="1:24">
@@ -15579,16 +15678,16 @@
         <v>155</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D311" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F311" s="11"/>
       <c r="G311" s="11"/>
@@ -15600,7 +15699,7 @@
         <v>4</v>
       </c>
       <c r="M311" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N311" s="11"/>
       <c r="O311" s="11"/>
@@ -15613,7 +15712,7 @@
       <c r="V311" s="11"/>
       <c r="W311" s="11"/>
       <c r="X311" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="312" spans="1:24">
@@ -15621,22 +15720,22 @@
         <v>155</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D312" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F312" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G312" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H312" s="11"/>
       <c r="I312" s="11"/>
@@ -15655,7 +15754,7 @@
       <c r="V312" s="11"/>
       <c r="W312" s="11"/>
       <c r="X312" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="313" spans="1:24">
@@ -15663,22 +15762,22 @@
         <v>155</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D313" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F313" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G313" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H313" s="11"/>
       <c r="I313" s="11"/>
@@ -15697,7 +15796,7 @@
       <c r="V313" s="11"/>
       <c r="W313" s="11"/>
       <c r="X313" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="314" spans="1:24">
@@ -15705,10 +15804,10 @@
         <v>155</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D314" s="22" t="s">
         <v>4</v>
@@ -15730,7 +15829,7 @@
         <v>4</v>
       </c>
       <c r="Q314" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R314" s="11"/>
       <c r="S314" s="11"/>
@@ -15739,7 +15838,7 @@
       <c r="V314" s="11"/>
       <c r="W314" s="11"/>
       <c r="X314" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="315" spans="1:24">
@@ -15747,7 +15846,7 @@
         <v>155</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>172</v>
@@ -15774,14 +15873,14 @@
         <v>4</v>
       </c>
       <c r="S315" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T315" s="11"/>
       <c r="U315" s="22"/>
       <c r="V315" s="11"/>
       <c r="W315" s="22"/>
       <c r="X315" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="316" spans="1:24">
@@ -15789,10 +15888,10 @@
         <v>155</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D316" s="22" t="s">
         <v>4</v>
@@ -15814,7 +15913,7 @@
         <v>4</v>
       </c>
       <c r="Q316" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R316" s="11"/>
       <c r="S316" s="22"/>
@@ -15823,7 +15922,7 @@
       <c r="V316" s="11"/>
       <c r="W316" s="22"/>
       <c r="X316" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="317" spans="1:24">
@@ -15831,10 +15930,10 @@
         <v>155</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D317" s="22" t="s">
         <v>4</v>
@@ -15854,7 +15953,7 @@
         <v>4</v>
       </c>
       <c r="O317" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P317" s="11"/>
       <c r="Q317" s="22"/>
@@ -15865,7 +15964,7 @@
       <c r="V317" s="11"/>
       <c r="W317" s="22"/>
       <c r="X317" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="318" spans="1:24">
@@ -15873,16 +15972,16 @@
         <v>155</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D318" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F318" s="22"/>
       <c r="G318" s="22"/>
@@ -15894,7 +15993,7 @@
         <v>4</v>
       </c>
       <c r="M318" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N318" s="11"/>
       <c r="O318" s="22"/>
@@ -15907,7 +16006,7 @@
       <c r="V318" s="11"/>
       <c r="W318" s="22"/>
       <c r="X318" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="319" spans="1:24">
@@ -15915,16 +16014,16 @@
         <v>155</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D319" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F319" s="22"/>
       <c r="G319" s="22"/>
@@ -15936,7 +16035,7 @@
         <v>4</v>
       </c>
       <c r="M319" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N319" s="11"/>
       <c r="O319" s="22"/>
@@ -15949,7 +16048,7 @@
       <c r="V319" s="11"/>
       <c r="W319" s="22"/>
       <c r="X319" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="320" spans="1:24">
@@ -15957,16 +16056,16 @@
         <v>155</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C320" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D320" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E320" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="D320" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="F320" s="22"/>
       <c r="G320" s="22"/>
@@ -15991,7 +16090,7 @@
       <c r="V320" s="11"/>
       <c r="W320" s="22"/>
       <c r="X320" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="321" spans="1:24">
@@ -15999,16 +16098,16 @@
         <v>155</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C321" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D321" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E321" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="D321" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="F321" s="22"/>
       <c r="G321" s="22"/>
@@ -16033,7 +16132,7 @@
       <c r="V321" s="11"/>
       <c r="W321" s="22"/>
       <c r="X321" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="322" spans="1:24">
@@ -16041,16 +16140,16 @@
         <v>155</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C322" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D322" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="D322" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="F322" s="22"/>
       <c r="G322" s="22"/>
@@ -16075,7 +16174,7 @@
       <c r="V322" s="11"/>
       <c r="W322" s="22"/>
       <c r="X322" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="323" spans="1:24">
@@ -16083,10 +16182,10 @@
         <v>155</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D323" s="22" t="s">
         <v>4</v>
@@ -16108,7 +16207,7 @@
         <v>4</v>
       </c>
       <c r="Q323" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R323" s="11"/>
       <c r="S323" s="22"/>
@@ -16117,7 +16216,7 @@
       <c r="V323" s="11"/>
       <c r="W323" s="22"/>
       <c r="X323" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="324" spans="1:24">
@@ -16125,16 +16224,16 @@
         <v>155</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C324" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D324" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E324" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="D324" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="F324" s="22"/>
       <c r="G324" s="22"/>
@@ -16148,7 +16247,7 @@
         <v>4</v>
       </c>
       <c r="O324" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P324" s="11"/>
       <c r="Q324" s="22"/>
@@ -16159,7 +16258,7 @@
       <c r="V324" s="11"/>
       <c r="W324" s="22"/>
       <c r="X324" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="325" spans="1:24">
@@ -16167,22 +16266,22 @@
         <v>155</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D325" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F325" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G325" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H325" s="11"/>
       <c r="I325" s="22"/>
@@ -16201,7 +16300,7 @@
       <c r="V325" s="11"/>
       <c r="W325" s="22"/>
       <c r="X325" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="326" spans="1:24">
@@ -16209,22 +16308,22 @@
         <v>155</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D326" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F326" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G326" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H326" s="11"/>
       <c r="I326" s="22"/>
@@ -16243,7 +16342,7 @@
       <c r="V326" s="11"/>
       <c r="W326" s="22"/>
       <c r="X326" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="327" spans="1:24">
@@ -16251,16 +16350,16 @@
         <v>155</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D327" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F327" s="22"/>
       <c r="G327" s="22"/>
@@ -16278,14 +16377,14 @@
         <v>4</v>
       </c>
       <c r="S327" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T327" s="11"/>
       <c r="U327" s="22"/>
       <c r="V327" s="11"/>
       <c r="W327" s="22"/>
       <c r="X327" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="328" spans="1:24">
@@ -16293,7 +16392,7 @@
         <v>155</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>194</v>
@@ -16308,7 +16407,7 @@
         <v>4</v>
       </c>
       <c r="G328" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H328" s="11"/>
       <c r="I328" s="22"/>
@@ -16327,7 +16426,7 @@
       <c r="V328" s="11"/>
       <c r="W328" s="22"/>
       <c r="X328" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="329" spans="1:24">
@@ -16335,7 +16434,7 @@
         <v>155</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>194</v>
@@ -16350,7 +16449,7 @@
         <v>4</v>
       </c>
       <c r="G329" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H329" s="11"/>
       <c r="I329" s="22"/>
@@ -16369,7 +16468,7 @@
       <c r="V329" s="11"/>
       <c r="W329" s="22"/>
       <c r="X329" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="330" spans="1:24">
@@ -16377,7 +16476,7 @@
         <v>155</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>194</v>
@@ -16392,7 +16491,7 @@
         <v>4</v>
       </c>
       <c r="G330" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H330" s="11"/>
       <c r="I330" s="22"/>
@@ -16411,7 +16510,7 @@
       <c r="V330" s="11"/>
       <c r="W330" s="22"/>
       <c r="X330" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="331" spans="1:24">
@@ -16419,16 +16518,16 @@
         <v>155</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="D331" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F331" s="22"/>
       <c r="G331" s="22"/>
@@ -16442,7 +16541,7 @@
         <v>4</v>
       </c>
       <c r="O331" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P331" s="11"/>
       <c r="Q331" s="22"/>
@@ -16453,7 +16552,7 @@
       <c r="V331" s="11"/>
       <c r="W331" s="22"/>
       <c r="X331" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="332" spans="1:24">
@@ -16461,16 +16560,16 @@
         <v>155</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D332" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F332" s="22"/>
       <c r="G332" s="22"/>
@@ -16482,7 +16581,7 @@
         <v>4</v>
       </c>
       <c r="M332" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N332" s="11"/>
       <c r="O332" s="22"/>
@@ -16495,7 +16594,7 @@
       <c r="V332" s="11"/>
       <c r="W332" s="22"/>
       <c r="X332" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="333" spans="1:24">
@@ -16503,7 +16602,7 @@
         <v>155</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>194</v>
@@ -16512,13 +16611,13 @@
         <v>4</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F333" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G333" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H333" s="11"/>
       <c r="I333" s="22"/>
@@ -16537,7 +16636,7 @@
       <c r="V333" s="11"/>
       <c r="W333" s="22"/>
       <c r="X333" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="334" spans="1:24">
@@ -16545,22 +16644,22 @@
         <v>155</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D334" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F334" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G334" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H334" s="11"/>
       <c r="I334" s="22"/>
@@ -16579,7 +16678,7 @@
       <c r="V334" s="11"/>
       <c r="W334" s="22"/>
       <c r="X334" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="335" spans="1:24">
@@ -16587,10 +16686,10 @@
         <v>155</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D335" s="22" t="s">
         <v>4</v>
@@ -16614,14 +16713,14 @@
         <v>4</v>
       </c>
       <c r="S335" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T335" s="11"/>
       <c r="U335" s="22"/>
       <c r="V335" s="11"/>
       <c r="W335" s="22"/>
       <c r="X335" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="336" spans="1:24">
@@ -16629,22 +16728,22 @@
         <v>242</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E336" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D336" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="F336" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G336" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H336" s="11"/>
       <c r="I336" s="11"/>
@@ -16663,7 +16762,7 @@
       <c r="V336" s="11"/>
       <c r="W336" s="11"/>
       <c r="X336" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="337" spans="1:24">
@@ -16671,10 +16770,10 @@
         <v>242</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D337" s="22" t="s">
         <v>4</v>
@@ -16690,7 +16789,7 @@
         <v>4</v>
       </c>
       <c r="K337" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L337" s="11"/>
       <c r="M337" s="11"/>
@@ -16705,7 +16804,7 @@
       <c r="V337" s="11"/>
       <c r="W337" s="11"/>
       <c r="X337" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="338" spans="1:24">
@@ -16713,7 +16812,7 @@
         <v>225</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>157</v>
@@ -16728,7 +16827,7 @@
         <v>4</v>
       </c>
       <c r="G338" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H338" s="11"/>
       <c r="I338" s="11"/>
@@ -16747,7 +16846,7 @@
       <c r="V338" s="11"/>
       <c r="W338" s="11"/>
       <c r="X338" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="339" spans="1:24">
@@ -16755,21 +16854,21 @@
         <v>202</v>
       </c>
       <c r="B339" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="C339" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="C339" s="21" t="s">
-        <v>494</v>
-      </c>
       <c r="D339" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F339" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G339" s="22" t="s">
+      <c r="G339" s="11" t="s">
         <v>521</v>
       </c>
       <c r="H339" s="11"/>
@@ -16789,7 +16888,7 @@
       <c r="V339" s="11"/>
       <c r="W339" s="11"/>
       <c r="X339" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="340" spans="1:24">
@@ -16797,21 +16896,21 @@
         <v>218</v>
       </c>
       <c r="B340" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="C340" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="C340" s="21" t="s">
+      <c r="D340" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E340" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D340" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="F340" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G340" s="22" t="s">
+      <c r="G340" s="11" t="s">
         <v>521</v>
       </c>
       <c r="H340" s="11"/>
@@ -16831,7 +16930,7 @@
       <c r="V340" s="11"/>
       <c r="W340" s="11"/>
       <c r="X340" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="341" spans="1:24">
@@ -16839,7 +16938,7 @@
         <v>218</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>191</v>
@@ -16856,7 +16955,7 @@
         <v>4</v>
       </c>
       <c r="I341" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J341" s="11"/>
       <c r="K341" s="22"/>
@@ -16873,7 +16972,7 @@
       <c r="V341" s="11"/>
       <c r="W341" s="22"/>
       <c r="X341" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="342" spans="1:24">
@@ -16881,7 +16980,7 @@
         <v>218</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>222</v>
@@ -16900,7 +16999,7 @@
         <v>4</v>
       </c>
       <c r="K342" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L342" s="11"/>
       <c r="M342" s="22"/>
@@ -16915,7 +17014,7 @@
       <c r="V342" s="11"/>
       <c r="W342" s="22"/>
       <c r="X342" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="343" spans="1:24">
@@ -16923,16 +17022,16 @@
         <v>40</v>
       </c>
       <c r="B343" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C343" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D343" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E343" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="D343" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="F343" s="22"/>
       <c r="G343" s="22"/>
@@ -16946,7 +17045,7 @@
         <v>4</v>
       </c>
       <c r="O343" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P343" s="11"/>
       <c r="Q343" s="22"/>
@@ -16957,7 +17056,7 @@
       <c r="V343" s="11"/>
       <c r="W343" s="22"/>
       <c r="X343" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="344" spans="1:24">
@@ -16965,16 +17064,16 @@
         <v>40</v>
       </c>
       <c r="B344" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D344" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F344" s="22"/>
       <c r="G344" s="22"/>
@@ -16988,7 +17087,7 @@
         <v>4</v>
       </c>
       <c r="O344" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P344" s="11"/>
       <c r="Q344" s="22"/>
@@ -16999,7 +17098,7 @@
       <c r="V344" s="11"/>
       <c r="W344" s="22"/>
       <c r="X344" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="345" spans="1:24">
@@ -17007,7 +17106,7 @@
         <v>40</v>
       </c>
       <c r="B345" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>34</v>
@@ -17016,7 +17115,7 @@
         <v>4</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F345" s="22"/>
       <c r="G345" s="22"/>
@@ -17030,7 +17129,7 @@
         <v>4</v>
       </c>
       <c r="O345" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P345" s="11"/>
       <c r="Q345" s="22"/>
@@ -17041,7 +17140,7 @@
       <c r="V345" s="11"/>
       <c r="W345" s="22"/>
       <c r="X345" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="346" spans="1:24">
@@ -17049,7 +17148,7 @@
         <v>40</v>
       </c>
       <c r="B346" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>37</v>
@@ -17058,7 +17157,7 @@
         <v>4</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F346" s="22"/>
       <c r="G346" s="22"/>
@@ -17072,7 +17171,7 @@
         <v>4</v>
       </c>
       <c r="O346" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P346" s="11"/>
       <c r="Q346" s="22"/>
@@ -17083,7 +17182,7 @@
       <c r="V346" s="11"/>
       <c r="W346" s="22"/>
       <c r="X346" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="347" spans="1:24">
@@ -17091,10 +17190,10 @@
         <v>40</v>
       </c>
       <c r="B347" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D347" s="22" t="s">
         <v>4</v>
@@ -17105,7 +17204,7 @@
       <c r="F347" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G347" s="22" t="s">
+      <c r="G347" s="11" t="s">
         <v>521</v>
       </c>
       <c r="H347" s="22"/>
@@ -17125,30 +17224,30 @@
       <c r="V347" s="11"/>
       <c r="W347" s="22"/>
       <c r="X347" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="348" spans="1:24">
       <c r="A348" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C348" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D348" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E348" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D348" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="F348" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G348" s="22" t="s">
-        <v>522</v>
+      <c r="G348" s="11" t="s">
+        <v>521</v>
       </c>
       <c r="H348" s="22"/>
       <c r="I348" s="22"/>
@@ -17167,18 +17266,18 @@
       <c r="V348" s="11"/>
       <c r="W348" s="22"/>
       <c r="X348" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="349" spans="1:24">
       <c r="A349" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D349" s="22" t="s">
         <v>4</v>
@@ -17189,7 +17288,7 @@
       <c r="F349" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G349" s="22" t="s">
+      <c r="G349" s="11" t="s">
         <v>521</v>
       </c>
       <c r="H349" s="22"/>
@@ -17209,18 +17308,18 @@
       <c r="V349" s="11"/>
       <c r="W349" s="22"/>
       <c r="X349" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="350" spans="1:24">
       <c r="A350" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D350" s="22" t="s">
         <v>4</v>
@@ -17232,7 +17331,7 @@
         <v>4</v>
       </c>
       <c r="G350" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H350" s="22"/>
       <c r="I350" s="22"/>
@@ -17251,24 +17350,24 @@
       <c r="V350" s="11"/>
       <c r="W350" s="22"/>
       <c r="X350" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="351" spans="1:24">
       <c r="A351" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C351" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D351" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E351" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="D351" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="F351" s="22"/>
       <c r="G351" s="22"/>
@@ -17282,7 +17381,7 @@
         <v>4</v>
       </c>
       <c r="O351" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P351" s="11"/>
       <c r="Q351" s="22"/>
@@ -17293,24 +17392,24 @@
       <c r="V351" s="11"/>
       <c r="W351" s="22"/>
       <c r="X351" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="352" spans="1:24">
       <c r="A352" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D352" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F352" s="22"/>
       <c r="G352" s="22"/>
@@ -17324,7 +17423,7 @@
         <v>4</v>
       </c>
       <c r="O352" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P352" s="11"/>
       <c r="Q352" s="22"/>
@@ -17335,18 +17434,18 @@
       <c r="V352" s="11"/>
       <c r="W352" s="22"/>
       <c r="X352" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="353" spans="1:24">
       <c r="A353" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="C353" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="D353" s="22" t="s">
         <v>4</v>
@@ -17357,7 +17456,7 @@
       <c r="F353" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G353" s="22" t="s">
+      <c r="G353" s="11" t="s">
         <v>521</v>
       </c>
       <c r="H353" s="11"/>
@@ -17377,11 +17476,1145 @@
       <c r="V353" s="11"/>
       <c r="W353" s="11"/>
       <c r="X353" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24">
+      <c r="A354" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D354" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F354" s="22"/>
+      <c r="G354" s="11"/>
+      <c r="H354" s="11"/>
+      <c r="I354" s="11"/>
+      <c r="J354" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K354" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="L354" s="11"/>
+      <c r="M354" s="11"/>
+      <c r="N354" s="11"/>
+      <c r="O354" s="11"/>
+      <c r="P354" s="11"/>
+      <c r="Q354" s="11"/>
+      <c r="R354" s="11"/>
+      <c r="S354" s="11"/>
+      <c r="T354" s="11"/>
+      <c r="U354" s="11"/>
+      <c r="V354" s="11"/>
+      <c r="W354" s="11"/>
+      <c r="X354" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24">
+      <c r="A355" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F355" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G355" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="H355" s="11"/>
+      <c r="I355" s="11"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="11"/>
+      <c r="L355" s="11"/>
+      <c r="M355" s="11"/>
+      <c r="N355" s="11"/>
+      <c r="O355" s="11"/>
+      <c r="P355" s="11"/>
+      <c r="Q355" s="11"/>
+      <c r="R355" s="11"/>
+      <c r="S355" s="11"/>
+      <c r="T355" s="11"/>
+      <c r="U355" s="11"/>
+      <c r="V355" s="11"/>
+      <c r="W355" s="11"/>
+      <c r="X355" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24">
+      <c r="A356" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D356" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F356" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G356" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H356" s="11"/>
+      <c r="I356" s="11"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="11"/>
+      <c r="L356" s="11"/>
+      <c r="M356" s="11"/>
+      <c r="N356" s="11"/>
+      <c r="O356" s="11"/>
+      <c r="P356" s="11"/>
+      <c r="Q356" s="11"/>
+      <c r="R356" s="11"/>
+      <c r="S356" s="11"/>
+      <c r="T356" s="11"/>
+      <c r="U356" s="11"/>
+      <c r="V356" s="11"/>
+      <c r="W356" s="11"/>
+      <c r="X356" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24">
+      <c r="A357" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D357" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F357" s="22"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I357" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="J357" s="11"/>
+      <c r="K357" s="11"/>
+      <c r="L357" s="11"/>
+      <c r="M357" s="11"/>
+      <c r="N357" s="11"/>
+      <c r="O357" s="11"/>
+      <c r="P357" s="11"/>
+      <c r="Q357" s="11"/>
+      <c r="R357" s="11"/>
+      <c r="S357" s="11"/>
+      <c r="T357" s="11"/>
+      <c r="U357" s="11"/>
+      <c r="V357" s="11"/>
+      <c r="W357" s="11"/>
+      <c r="X357" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24">
+      <c r="A358" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D358" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F358" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G358" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H358" s="11"/>
+      <c r="I358" s="11"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="11"/>
+      <c r="L358" s="11"/>
+      <c r="M358" s="11"/>
+      <c r="N358" s="11"/>
+      <c r="O358" s="11"/>
+      <c r="P358" s="11"/>
+      <c r="Q358" s="11"/>
+      <c r="R358" s="11"/>
+      <c r="S358" s="11"/>
+      <c r="T358" s="11"/>
+      <c r="U358" s="11"/>
+      <c r="V358" s="11"/>
+      <c r="W358" s="11"/>
+      <c r="X358" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24">
+      <c r="A359" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D359" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F359" s="22"/>
+      <c r="G359" s="11"/>
+      <c r="H359" s="11"/>
+      <c r="I359" s="11"/>
+      <c r="J359" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K359" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="L359" s="11"/>
+      <c r="M359" s="11"/>
+      <c r="N359" s="11"/>
+      <c r="O359" s="11"/>
+      <c r="P359" s="11"/>
+      <c r="Q359" s="11"/>
+      <c r="R359" s="11"/>
+      <c r="S359" s="11"/>
+      <c r="T359" s="11"/>
+      <c r="U359" s="11"/>
+      <c r="V359" s="11"/>
+      <c r="W359" s="11"/>
+      <c r="X359" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24">
+      <c r="A360" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D360" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F360" s="22"/>
+      <c r="G360" s="11"/>
+      <c r="H360" s="11"/>
+      <c r="I360" s="11"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="11"/>
+      <c r="L360" s="11"/>
+      <c r="M360" s="11"/>
+      <c r="N360" s="11"/>
+      <c r="O360" s="11"/>
+      <c r="P360" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q360" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="R360" s="11"/>
+      <c r="S360" s="11"/>
+      <c r="T360" s="11"/>
+      <c r="U360" s="11"/>
+      <c r="V360" s="11"/>
+      <c r="W360" s="11"/>
+      <c r="X360" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24">
+      <c r="A361" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D361" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F361" s="22"/>
+      <c r="G361" s="11"/>
+      <c r="H361" s="11"/>
+      <c r="I361" s="11"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="11"/>
+      <c r="L361" s="11"/>
+      <c r="M361" s="11"/>
+      <c r="N361" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O361" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="P361" s="11"/>
+      <c r="Q361" s="11"/>
+      <c r="R361" s="11"/>
+      <c r="S361" s="11"/>
+      <c r="T361" s="11"/>
+      <c r="U361" s="11"/>
+      <c r="V361" s="11"/>
+      <c r="W361" s="11"/>
+      <c r="X361" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24">
+      <c r="A362" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D362" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F362" s="22"/>
+      <c r="G362" s="11"/>
+      <c r="H362" s="11"/>
+      <c r="I362" s="11"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="11"/>
+      <c r="L362" s="11"/>
+      <c r="M362" s="11"/>
+      <c r="N362" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O362" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="P362" s="11"/>
+      <c r="Q362" s="11"/>
+      <c r="R362" s="11"/>
+      <c r="S362" s="11"/>
+      <c r="T362" s="11"/>
+      <c r="U362" s="11"/>
+      <c r="V362" s="11"/>
+      <c r="W362" s="11"/>
+      <c r="X362" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24">
+      <c r="A363" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D363" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F363" s="22"/>
+      <c r="G363" s="11"/>
+      <c r="H363" s="11"/>
+      <c r="I363" s="11"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="11"/>
+      <c r="L363" s="11"/>
+      <c r="M363" s="11"/>
+      <c r="N363" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O363" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="P363" s="11"/>
+      <c r="Q363" s="11"/>
+      <c r="R363" s="11"/>
+      <c r="S363" s="11"/>
+      <c r="T363" s="11"/>
+      <c r="U363" s="11"/>
+      <c r="V363" s="11"/>
+      <c r="W363" s="11"/>
+      <c r="X363" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="364" spans="1:24">
+      <c r="A364" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D364" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F364" s="22"/>
+      <c r="G364" s="11"/>
+      <c r="H364" s="11"/>
+      <c r="I364" s="11"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="11"/>
+      <c r="L364" s="11"/>
+      <c r="M364" s="11"/>
+      <c r="N364" s="11"/>
+      <c r="O364" s="11"/>
+      <c r="P364" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q364" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="R364" s="11"/>
+      <c r="S364" s="11"/>
+      <c r="T364" s="11"/>
+      <c r="U364" s="11"/>
+      <c r="V364" s="11"/>
+      <c r="W364" s="11"/>
+      <c r="X364" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24">
+      <c r="A365" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D365" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F365" s="22"/>
+      <c r="G365" s="11"/>
+      <c r="H365" s="11"/>
+      <c r="I365" s="11"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="11"/>
+      <c r="L365" s="11"/>
+      <c r="M365" s="11"/>
+      <c r="N365" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O365" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="P365" s="11"/>
+      <c r="Q365" s="11"/>
+      <c r="R365" s="11"/>
+      <c r="S365" s="11"/>
+      <c r="T365" s="11"/>
+      <c r="U365" s="11"/>
+      <c r="V365" s="11"/>
+      <c r="W365" s="11"/>
+      <c r="X365" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24">
+      <c r="A366" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D366" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F366" s="22"/>
+      <c r="G366" s="11"/>
+      <c r="H366" s="11"/>
+      <c r="I366" s="11"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="11"/>
+      <c r="L366" s="11"/>
+      <c r="M366" s="11"/>
+      <c r="N366" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O366" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="P366" s="11"/>
+      <c r="Q366" s="11"/>
+      <c r="R366" s="11"/>
+      <c r="S366" s="11"/>
+      <c r="T366" s="11"/>
+      <c r="U366" s="11"/>
+      <c r="V366" s="11"/>
+      <c r="W366" s="11"/>
+      <c r="X366" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24">
+      <c r="A367" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D367" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F367" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G367" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H367" s="11"/>
+      <c r="I367" s="11"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="11"/>
+      <c r="L367" s="11"/>
+      <c r="M367" s="11"/>
+      <c r="N367" s="11"/>
+      <c r="O367" s="11"/>
+      <c r="P367" s="11"/>
+      <c r="Q367" s="11"/>
+      <c r="R367" s="11"/>
+      <c r="S367" s="11"/>
+      <c r="T367" s="11"/>
+      <c r="U367" s="11"/>
+      <c r="V367" s="11"/>
+      <c r="W367" s="11"/>
+      <c r="X367" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24">
+      <c r="A368" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D368" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F368" s="22"/>
+      <c r="G368" s="11"/>
+      <c r="H368" s="11"/>
+      <c r="I368" s="11"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="11"/>
+      <c r="L368" s="11"/>
+      <c r="M368" s="11"/>
+      <c r="N368" s="11"/>
+      <c r="O368" s="11"/>
+      <c r="P368" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q368" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="R368" s="11"/>
+      <c r="S368" s="11"/>
+      <c r="T368" s="11"/>
+      <c r="U368" s="11"/>
+      <c r="V368" s="11"/>
+      <c r="W368" s="11"/>
+      <c r="X368" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24">
+      <c r="A369" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D369" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F369" s="22"/>
+      <c r="G369" s="11"/>
+      <c r="H369" s="11"/>
+      <c r="I369" s="11"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="11"/>
+      <c r="L369" s="11"/>
+      <c r="M369" s="11"/>
+      <c r="N369" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O369" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="P369" s="11"/>
+      <c r="Q369" s="11"/>
+      <c r="R369" s="11"/>
+      <c r="S369" s="11"/>
+      <c r="T369" s="11"/>
+      <c r="U369" s="11"/>
+      <c r="V369" s="11"/>
+      <c r="W369" s="11"/>
+      <c r="X369" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="370" spans="1:24">
+      <c r="A370" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D370" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F370" s="22"/>
+      <c r="G370" s="11"/>
+      <c r="H370" s="11"/>
+      <c r="I370" s="11"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="11"/>
+      <c r="L370" s="11"/>
+      <c r="M370" s="11"/>
+      <c r="N370" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O370" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="P370" s="11"/>
+      <c r="Q370" s="11"/>
+      <c r="R370" s="11"/>
+      <c r="S370" s="11"/>
+      <c r="T370" s="11"/>
+      <c r="U370" s="11"/>
+      <c r="V370" s="11"/>
+      <c r="W370" s="11"/>
+      <c r="X370" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="371" spans="1:24">
+      <c r="A371" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D371" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F371" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G371" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H371" s="11"/>
+      <c r="I371" s="11"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="11"/>
+      <c r="L371" s="11"/>
+      <c r="M371" s="11"/>
+      <c r="N371" s="11"/>
+      <c r="O371" s="11"/>
+      <c r="P371" s="11"/>
+      <c r="Q371" s="11"/>
+      <c r="R371" s="11"/>
+      <c r="S371" s="11"/>
+      <c r="T371" s="11"/>
+      <c r="U371" s="11"/>
+      <c r="V371" s="11"/>
+      <c r="W371" s="11"/>
+      <c r="X371" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24">
+      <c r="A372" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D372" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F372" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G372" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H372" s="11"/>
+      <c r="I372" s="11"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="11"/>
+      <c r="L372" s="11"/>
+      <c r="M372" s="11"/>
+      <c r="N372" s="11"/>
+      <c r="O372" s="11"/>
+      <c r="P372" s="11"/>
+      <c r="Q372" s="11"/>
+      <c r="R372" s="11"/>
+      <c r="S372" s="11"/>
+      <c r="T372" s="11"/>
+      <c r="U372" s="11"/>
+      <c r="V372" s="11"/>
+      <c r="W372" s="11"/>
+      <c r="X372" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="373" spans="1:24">
+      <c r="A373" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D373" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F373" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G373" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H373" s="11"/>
+      <c r="I373" s="11"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="11"/>
+      <c r="L373" s="11"/>
+      <c r="M373" s="11"/>
+      <c r="N373" s="11"/>
+      <c r="O373" s="11"/>
+      <c r="P373" s="11"/>
+      <c r="Q373" s="11"/>
+      <c r="R373" s="11"/>
+      <c r="S373" s="11"/>
+      <c r="T373" s="11"/>
+      <c r="U373" s="11"/>
+      <c r="V373" s="11"/>
+      <c r="W373" s="11"/>
+      <c r="X373" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24">
+      <c r="A374" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D374" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F374" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G374" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H374" s="11"/>
+      <c r="I374" s="11"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="11"/>
+      <c r="L374" s="11"/>
+      <c r="M374" s="11"/>
+      <c r="N374" s="11"/>
+      <c r="O374" s="11"/>
+      <c r="P374" s="11"/>
+      <c r="Q374" s="11"/>
+      <c r="R374" s="11"/>
+      <c r="S374" s="11"/>
+      <c r="T374" s="11"/>
+      <c r="U374" s="11"/>
+      <c r="V374" s="11"/>
+      <c r="W374" s="11"/>
+      <c r="X374" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24">
+      <c r="A375" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D375" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F375" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G375" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H375" s="11"/>
+      <c r="I375" s="11"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="11"/>
+      <c r="L375" s="11"/>
+      <c r="M375" s="11"/>
+      <c r="N375" s="11"/>
+      <c r="O375" s="11"/>
+      <c r="P375" s="11"/>
+      <c r="Q375" s="11"/>
+      <c r="R375" s="11"/>
+      <c r="S375" s="11"/>
+      <c r="T375" s="11"/>
+      <c r="U375" s="11"/>
+      <c r="V375" s="11"/>
+      <c r="W375" s="11"/>
+      <c r="X375" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24">
+      <c r="A376" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D376" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F376" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G376" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H376" s="11"/>
+      <c r="I376" s="11"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="11"/>
+      <c r="L376" s="11"/>
+      <c r="M376" s="11"/>
+      <c r="N376" s="11"/>
+      <c r="O376" s="11"/>
+      <c r="P376" s="11"/>
+      <c r="Q376" s="11"/>
+      <c r="R376" s="11"/>
+      <c r="S376" s="11"/>
+      <c r="T376" s="11"/>
+      <c r="U376" s="11"/>
+      <c r="V376" s="11"/>
+      <c r="W376" s="11"/>
+      <c r="X376" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="377" spans="1:24">
+      <c r="A377" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D377" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F377" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G377" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H377" s="11"/>
+      <c r="I377" s="11"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="11"/>
+      <c r="L377" s="11"/>
+      <c r="M377" s="11"/>
+      <c r="N377" s="11"/>
+      <c r="O377" s="11"/>
+      <c r="P377" s="11"/>
+      <c r="Q377" s="11"/>
+      <c r="R377" s="11"/>
+      <c r="S377" s="11"/>
+      <c r="T377" s="11"/>
+      <c r="U377" s="11"/>
+      <c r="V377" s="11"/>
+      <c r="W377" s="11"/>
+      <c r="X377" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24">
+      <c r="A378" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D378" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F378" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G378" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H378" s="11"/>
+      <c r="I378" s="11"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="11"/>
+      <c r="L378" s="11"/>
+      <c r="M378" s="11"/>
+      <c r="N378" s="11"/>
+      <c r="O378" s="11"/>
+      <c r="P378" s="11"/>
+      <c r="Q378" s="11"/>
+      <c r="R378" s="11"/>
+      <c r="S378" s="11"/>
+      <c r="T378" s="11"/>
+      <c r="U378" s="11"/>
+      <c r="V378" s="11"/>
+      <c r="W378" s="11"/>
+      <c r="X378" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="379" spans="1:24">
+      <c r="A379" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D379" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F379" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H379" s="11"/>
+      <c r="I379" s="11"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="11"/>
+      <c r="L379" s="11"/>
+      <c r="M379" s="11"/>
+      <c r="N379" s="11"/>
+      <c r="O379" s="11"/>
+      <c r="P379" s="11"/>
+      <c r="Q379" s="11"/>
+      <c r="R379" s="11"/>
+      <c r="S379" s="11"/>
+      <c r="T379" s="11"/>
+      <c r="U379" s="11"/>
+      <c r="V379" s="11"/>
+      <c r="W379" s="11"/>
+      <c r="X379" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="380" spans="1:24">
+      <c r="A380" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D380" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F380" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G380" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="H380" s="11"/>
+      <c r="I380" s="11"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="11"/>
+      <c r="L380" s="11"/>
+      <c r="M380" s="11"/>
+      <c r="N380" s="11"/>
+      <c r="O380" s="11"/>
+      <c r="P380" s="11"/>
+      <c r="Q380" s="11"/>
+      <c r="R380" s="11"/>
+      <c r="S380" s="11"/>
+      <c r="T380" s="11"/>
+      <c r="U380" s="11"/>
+      <c r="V380" s="11"/>
+      <c r="W380" s="11"/>
+      <c r="X380" s="15" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X352"/>
+  <autoFilter ref="A1:X380"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
